--- a/dataanalysis/stock_analysis.xlsx
+++ b/dataanalysis/stock_analysis.xlsx
@@ -1,20 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Extract" localSheetId="1">Sheet2!$A:$C</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="85">
   <si>
     <t>open</t>
   </si>
@@ -70,157 +109,7 @@
     <t>300766</t>
   </si>
   <si>
-    <t>002184</t>
-  </si>
-  <si>
-    <t>300718</t>
-  </si>
-  <si>
-    <t>300638</t>
-  </si>
-  <si>
-    <t>300953</t>
-  </si>
-  <si>
-    <t>300996</t>
-  </si>
-  <si>
-    <t>300170</t>
-  </si>
-  <si>
-    <t>300634</t>
-  </si>
-  <si>
-    <t>688088</t>
-  </si>
-  <si>
-    <t>300570</t>
-  </si>
-  <si>
-    <t>600601</t>
-  </si>
-  <si>
-    <t>300100</t>
-  </si>
-  <si>
-    <t>603893</t>
-  </si>
-  <si>
-    <t>300548</t>
-  </si>
-  <si>
-    <t>603986</t>
-  </si>
-  <si>
-    <t>300378</t>
-  </si>
-  <si>
-    <t>300007</t>
-  </si>
-  <si>
-    <t>002484</t>
-  </si>
-  <si>
-    <t>300684</t>
-  </si>
-  <si>
-    <t>300926</t>
-  </si>
-  <si>
-    <t>300153</t>
-  </si>
-  <si>
-    <t>300458</t>
-  </si>
-  <si>
-    <t>002364</t>
-  </si>
-  <si>
-    <t>002117</t>
-  </si>
-  <si>
-    <t>300476</t>
-  </si>
-  <si>
-    <t>688099</t>
-  </si>
-  <si>
     <t>每日互动</t>
-  </si>
-  <si>
-    <t>海得控制</t>
-  </si>
-  <si>
-    <t>长盛轴承</t>
-  </si>
-  <si>
-    <t>广和通</t>
-  </si>
-  <si>
-    <t>震裕科技</t>
-  </si>
-  <si>
-    <t>普联软件</t>
-  </si>
-  <si>
-    <t>汉得信息</t>
-  </si>
-  <si>
-    <t>彩讯股份</t>
-  </si>
-  <si>
-    <t>虹软科技</t>
-  </si>
-  <si>
-    <t>太辰光</t>
-  </si>
-  <si>
-    <t>方正科技</t>
-  </si>
-  <si>
-    <t>双林股份</t>
-  </si>
-  <si>
-    <t>瑞芯微</t>
-  </si>
-  <si>
-    <t>博创科技</t>
-  </si>
-  <si>
-    <t>兆易创新</t>
-  </si>
-  <si>
-    <t>鼎捷数智</t>
-  </si>
-  <si>
-    <t>汉威科技</t>
-  </si>
-  <si>
-    <t>江海股份</t>
-  </si>
-  <si>
-    <t>中石科技</t>
-  </si>
-  <si>
-    <t>博俊科技</t>
-  </si>
-  <si>
-    <t>科泰电源</t>
-  </si>
-  <si>
-    <t>全志科技</t>
-  </si>
-  <si>
-    <t>中恒电气</t>
-  </si>
-  <si>
-    <t>东港股份</t>
-  </si>
-  <si>
-    <t>胜宏科技</t>
-  </si>
-  <si>
-    <t>晶晨股份</t>
   </si>
   <si>
     <t>20250123</t>
@@ -229,7 +118,19 @@
     <t>20250122</t>
   </si>
   <si>
+    <t>002184</t>
+  </si>
+  <si>
+    <t>海得控制</t>
+  </si>
+  <si>
     <t>20250103</t>
+  </si>
+  <si>
+    <t>300718</t>
+  </si>
+  <si>
+    <t>长盛轴承</t>
   </si>
   <si>
     <t>20250114</t>
@@ -238,69 +139,550 @@
     <t>20250120</t>
   </si>
   <si>
+    <t>300638</t>
+  </si>
+  <si>
+    <t>广和通</t>
+  </si>
+  <si>
+    <t>300953</t>
+  </si>
+  <si>
+    <t>震裕科技</t>
+  </si>
+  <si>
     <t>20250110</t>
+  </si>
+  <si>
+    <t>300996</t>
+  </si>
+  <si>
+    <t>普联软件</t>
+  </si>
+  <si>
+    <t>300170</t>
+  </si>
+  <si>
+    <t>汉得信息</t>
+  </si>
+  <si>
+    <t>300634</t>
+  </si>
+  <si>
+    <t>彩讯股份</t>
   </si>
   <si>
     <t>20250127</t>
   </si>
   <si>
+    <t>688088</t>
+  </si>
+  <si>
+    <t>虹软科技</t>
+  </si>
+  <si>
     <t>20250117</t>
+  </si>
+  <si>
+    <t>300570</t>
+  </si>
+  <si>
+    <t>太辰光</t>
   </si>
   <si>
     <t>20250116</t>
   </si>
   <si>
+    <t>600601</t>
+  </si>
+  <si>
+    <t>方正科技</t>
+  </si>
+  <si>
+    <t>300100</t>
+  </si>
+  <si>
+    <t>双林股份</t>
+  </si>
+  <si>
+    <t>603893</t>
+  </si>
+  <si>
+    <t>瑞芯微</t>
+  </si>
+  <si>
     <t>20250108</t>
+  </si>
+  <si>
+    <t>300548</t>
+  </si>
+  <si>
+    <t>博创科技</t>
+  </si>
+  <si>
+    <t>603986</t>
+  </si>
+  <si>
+    <t>兆易创新</t>
+  </si>
+  <si>
+    <t>300378</t>
+  </si>
+  <si>
+    <t>鼎捷数智</t>
   </si>
   <si>
     <t>20250124</t>
   </si>
   <si>
+    <t>300007</t>
+  </si>
+  <si>
+    <t>汉威科技</t>
+  </si>
+  <si>
     <t>20250115</t>
+  </si>
+  <si>
+    <t>002484</t>
+  </si>
+  <si>
+    <t>江海股份</t>
+  </si>
+  <si>
+    <t>300684</t>
+  </si>
+  <si>
+    <t>中石科技</t>
+  </si>
+  <si>
+    <t>300926</t>
+  </si>
+  <si>
+    <t>博俊科技</t>
   </si>
   <si>
     <t>20250109</t>
   </si>
   <si>
+    <t>300153</t>
+  </si>
+  <si>
+    <t>科泰电源</t>
+  </si>
+  <si>
+    <t>300458</t>
+  </si>
+  <si>
+    <t>全志科技</t>
+  </si>
+  <si>
     <t>20250121</t>
+  </si>
+  <si>
+    <t>002364</t>
+  </si>
+  <si>
+    <t>中恒电气</t>
   </si>
   <si>
     <t>20250106</t>
   </si>
   <si>
+    <t>002117</t>
+  </si>
+  <si>
+    <t>东港股份</t>
+  </si>
+  <si>
     <t>20250102</t>
+  </si>
+  <si>
+    <t>300476</t>
+  </si>
+  <si>
+    <t>胜宏科技</t>
+  </si>
+  <si>
+    <t>688099</t>
+  </si>
+  <si>
+    <t>晶晨股份</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -323,9 +705,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -333,11 +957,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -620,17 +1296,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -685,7 +1363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>18.18</v>
       </c>
@@ -708,10 +1386,10 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -749,10 +1427,10 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -767,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1.025512756378189</v>
+        <v>1.02551275637819</v>
       </c>
       <c r="O3">
-        <v>1.034103410341034</v>
+        <v>1.03410341034103</v>
       </c>
       <c r="P3">
-        <v>1.040414507772021</v>
+        <v>1.04041450777202</v>
       </c>
       <c r="Q3">
-        <v>1.045654565456546</v>
+        <v>1.04565456545655</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -802,10 +1480,10 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -820,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1.175609756097561</v>
+        <v>1.17560975609756</v>
       </c>
       <c r="O4">
-        <v>1.281914893617021</v>
+        <v>1.28191489361702</v>
       </c>
       <c r="P4">
-        <v>1.200199203187251</v>
+        <v>1.20019920318725</v>
       </c>
       <c r="Q4">
         <v>1.26775381378222</v>
@@ -855,10 +1533,10 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -908,10 +1586,10 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -926,16 +1604,16 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>1.199861687413555</v>
+        <v>1.19986168741356</v>
       </c>
       <c r="O6">
-        <v>1.179460580912863</v>
+        <v>1.17946058091286</v>
       </c>
       <c r="P6">
-        <v>1.199861687413555</v>
+        <v>1.19986168741356</v>
       </c>
       <c r="Q6">
-        <v>1.199861687413555</v>
+        <v>1.19986168741356</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -961,10 +1639,10 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -979,19 +1657,19 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1.198847262247839</v>
+        <v>1.19884726224784</v>
       </c>
       <c r="O7">
-        <v>1.051011433597186</v>
+        <v>1.05101143359719</v>
       </c>
       <c r="P7">
-        <v>1.151008645533141</v>
+        <v>1.15100864553314</v>
       </c>
       <c r="Q7">
-        <v>1.048703170028818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.04870317002882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>17.18</v>
       </c>
@@ -1014,10 +1692,10 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1055,10 +1733,10 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1073,16 +1751,16 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1.026180698151951</v>
+        <v>1.02618069815195</v>
       </c>
       <c r="O9">
-        <v>1.068783068783069</v>
+        <v>1.06878306878307</v>
       </c>
       <c r="P9">
-        <v>1.079418344519016</v>
+        <v>1.07941834451902</v>
       </c>
       <c r="Q9">
-        <v>1.058207217694994</v>
+        <v>1.05820721769499</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1108,10 +1786,10 @@
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1126,16 +1804,16 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1.025512756378189</v>
+        <v>1.02551275637819</v>
       </c>
       <c r="O10">
-        <v>1.034103410341034</v>
+        <v>1.03410341034103</v>
       </c>
       <c r="P10">
-        <v>1.040414507772021</v>
+        <v>1.04041450777202</v>
       </c>
       <c r="Q10">
-        <v>1.045654565456546</v>
+        <v>1.04565456545655</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1161,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1179,13 +1857,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1.175609756097561</v>
+        <v>1.17560975609756</v>
       </c>
       <c r="O11">
-        <v>1.281914893617021</v>
+        <v>1.28191489361702</v>
       </c>
       <c r="P11">
-        <v>1.200199203187251</v>
+        <v>1.20019920318725</v>
       </c>
       <c r="Q11">
         <v>1.26775381378222</v>
@@ -1214,10 +1892,10 @@
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1267,10 +1945,10 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1285,19 +1963,19 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>1.199861687413555</v>
+        <v>1.19986168741356</v>
       </c>
       <c r="O13">
-        <v>1.179460580912863</v>
+        <v>1.17946058091286</v>
       </c>
       <c r="P13">
-        <v>1.199861687413555</v>
+        <v>1.19986168741356</v>
       </c>
       <c r="Q13">
-        <v>1.199861687413555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.19986168741356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>14.14</v>
       </c>
@@ -1317,13 +1995,13 @@
         <v>916803.36</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1358,13 +2036,13 @@
         <v>1038844.48</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1382,13 +2060,13 @@
         <v>1.0997171145686</v>
       </c>
       <c r="O15">
-        <v>0.9647940074906368</v>
+        <v>0.964794007490637</v>
       </c>
       <c r="P15">
         <v>1.0997171145686</v>
       </c>
       <c r="Q15">
-        <v>1.005657708628006</v>
+        <v>1.00565770862801</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1408,16 +2086,16 @@
         <v>1619153920</v>
       </c>
       <c r="F16">
-        <v>977780.0700000001</v>
+        <v>977780.07</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1435,13 +2113,13 @@
         <v>1.10032154340836</v>
       </c>
       <c r="O16">
-        <v>1.164596273291925</v>
+        <v>1.16459627329193</v>
       </c>
       <c r="P16">
         <v>1.10032154340836</v>
       </c>
       <c r="Q16">
-        <v>1.091420534458509</v>
+        <v>1.09142053445851</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1464,13 +2142,13 @@
         <v>1143998.08</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1485,13 +2163,13 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1.099941554646406</v>
+        <v>1.09994155464641</v>
       </c>
       <c r="O17">
-        <v>1.033333333333333</v>
+        <v>1.03333333333333</v>
       </c>
       <c r="P17">
-        <v>1.099941554646406</v>
+        <v>1.09994155464641</v>
       </c>
       <c r="Q17">
         <v>1.14819587628866</v>
@@ -1517,13 +2195,13 @@
         <v>1335819.92</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1538,16 +2216,16 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>1.099893730074389</v>
+        <v>1.09989373007439</v>
       </c>
       <c r="O18">
-        <v>1.216774193548387</v>
+        <v>1.21677419354839</v>
       </c>
       <c r="P18">
-        <v>1.099893730074389</v>
+        <v>1.09989373007439</v>
       </c>
       <c r="Q18">
-        <v>1.122895622895623</v>
+        <v>1.12289562289562</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,16 +2245,16 @@
         <v>1511999232</v>
       </c>
       <c r="F19">
-        <v>805444.0700000001</v>
+        <v>805444.07</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1594,16 +2272,16 @@
         <v>0.948792270531401</v>
       </c>
       <c r="O19">
-        <v>0.9878048780487805</v>
+        <v>0.98780487804878</v>
       </c>
       <c r="P19">
         <v>0.9</v>
       </c>
       <c r="Q19">
-        <v>0.9325337331334332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.932533733133433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>32.6</v>
       </c>
@@ -1623,13 +2301,13 @@
         <v>508695.69</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1664,13 +2342,13 @@
         <v>526645.99</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1685,16 +2363,16 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1.073684210526316</v>
+        <v>1.07368421052632</v>
       </c>
       <c r="O21">
         <v>1.13</v>
       </c>
       <c r="P21">
-        <v>1.042780748663102</v>
+        <v>1.0427807486631</v>
       </c>
       <c r="Q21">
-        <v>1.134969325153374</v>
+        <v>1.13496932515337</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +2395,13 @@
         <v>463861.8</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1738,16 +2416,16 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1.026470588235294</v>
+        <v>1.02647058823529</v>
       </c>
       <c r="O22">
-        <v>1.038716814159292</v>
+        <v>1.03871681415929</v>
       </c>
       <c r="P22">
-        <v>1.027948717948718</v>
+        <v>1.02794871794872</v>
       </c>
       <c r="Q22">
-        <v>1.040540540540541</v>
+        <v>1.04054054054054</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +2448,13 @@
         <v>498294.2</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1794,13 +2472,13 @@
         <v>1.07163323782235</v>
       </c>
       <c r="O23">
-        <v>1.026357827476038</v>
+        <v>1.02635782747604</v>
       </c>
       <c r="P23">
-        <v>0.9925168371164877</v>
+        <v>0.992516837116488</v>
       </c>
       <c r="Q23">
-        <v>1.077922077922078</v>
+        <v>1.07792207792208</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +2501,13 @@
         <v>554315.76</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1844,16 +2522,16 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.063948306595365</v>
+        <v>1.06394830659536</v>
       </c>
       <c r="O24">
-        <v>1.007263294422827</v>
+        <v>1.00726329442283</v>
       </c>
       <c r="P24">
-        <v>1.200050263885398</v>
+        <v>1.2000502638854</v>
       </c>
       <c r="Q24">
-        <v>0.9759036144578314</v>
+        <v>0.975903614457831</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +2554,13 @@
         <v>610161.52</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1897,19 +2575,19 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>1.189528795811518</v>
+        <v>1.18952879581152</v>
       </c>
       <c r="O25">
-        <v>1.228174092196755</v>
+        <v>1.22817409219675</v>
       </c>
       <c r="P25">
-        <v>1.126282722513089</v>
+        <v>1.12628272251309</v>
       </c>
       <c r="Q25">
-        <v>1.185925925925926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>1.18592592592593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>40.5</v>
       </c>
@@ -1929,13 +2607,13 @@
         <v>554315.76</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1970,13 +2648,13 @@
         <v>610161.52</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1991,16 +2669,16 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>1.189528795811518</v>
+        <v>1.18952879581152</v>
       </c>
       <c r="O27">
-        <v>1.228174092196755</v>
+        <v>1.22817409219675</v>
       </c>
       <c r="P27">
-        <v>1.126282722513089</v>
+        <v>1.12628272251309</v>
       </c>
       <c r="Q27">
-        <v>1.185925925925926</v>
+        <v>1.18592592592593</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2701,13 @@
         <v>468892.89</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2044,16 +2722,16 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>1.001760563380282</v>
+        <v>1.00176056338028</v>
       </c>
       <c r="O28">
-        <v>1.090375340742294</v>
+        <v>1.09037534074229</v>
       </c>
       <c r="P28">
-        <v>1.004648568240982</v>
+        <v>1.00464856824098</v>
       </c>
       <c r="Q28">
-        <v>1.082656672912763</v>
+        <v>1.08265667291276</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2076,13 +2754,13 @@
         <v>485518.56</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2097,16 +2775,16 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0.9609841827768014</v>
+        <v>0.960984182776801</v>
       </c>
       <c r="O29">
-        <v>0.9617307692307692</v>
+        <v>0.961730769230769</v>
       </c>
       <c r="P29">
-        <v>0.9809365167499537</v>
+        <v>0.980936516749954</v>
       </c>
       <c r="Q29">
-        <v>1.048076923076923</v>
+        <v>1.04807692307692</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2129,13 +2807,13 @@
         <v>482123.94</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2150,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1.056693489392831</v>
+        <v>1.05669348939283</v>
       </c>
       <c r="O30">
-        <v>1.031993601279744</v>
+        <v>1.03199360127974</v>
       </c>
       <c r="P30">
-        <v>1.080943396226415</v>
+        <v>1.08094339622641</v>
       </c>
       <c r="Q30">
-        <v>0.9541284403669725</v>
+        <v>0.954128440366973</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2182,13 +2860,13 @@
         <v>376864.8</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2203,19 +2881,19 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0.9865005192107996</v>
+        <v>0.9865005192108</v>
       </c>
       <c r="O31">
-        <v>0.9699670606471614</v>
+        <v>0.969967060647161</v>
       </c>
       <c r="P31">
-        <v>0.9441438296386805</v>
+        <v>0.94414382963868</v>
       </c>
       <c r="Q31">
-        <v>1.073076923076923</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>1.07307692307692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>20.59</v>
       </c>
@@ -2235,13 +2913,13 @@
         <v>1060806.32</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2276,13 +2954,13 @@
         <v>1332450.56</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2297,16 +2975,16 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1.171020408163265</v>
+        <v>1.17102040816326</v>
       </c>
       <c r="O33">
         <v>1.32531894013739</v>
       </c>
       <c r="P33">
-        <v>1.199916352990381</v>
+        <v>1.19991635299038</v>
       </c>
       <c r="Q33">
-        <v>1.311801845556095</v>
+        <v>1.31180184555609</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2329,13 +3007,13 @@
         <v>1516735.46</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2350,16 +3028,16 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>0.9916347159288951</v>
+        <v>0.991634715928895</v>
       </c>
       <c r="O34">
-        <v>0.9803776379118845</v>
+        <v>0.980377637911884</v>
       </c>
       <c r="P34">
-        <v>0.9794353433252004</v>
+        <v>0.9794353433252</v>
       </c>
       <c r="Q34">
-        <v>1.053313587560163</v>
+        <v>1.05331358756016</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2382,13 +3060,13 @@
         <v>1371721.76</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2403,16 +3081,16 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <v>1.035500878734622</v>
+        <v>1.03550087873462</v>
       </c>
       <c r="O35">
-        <v>1.019637462235649</v>
+        <v>1.01963746223565</v>
       </c>
       <c r="P35">
-        <v>0.9804270462633452</v>
+        <v>0.980427046263345</v>
       </c>
       <c r="Q35">
-        <v>1.009841827768014</v>
+        <v>1.00984182776801</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2435,13 +3113,13 @@
         <v>1477488.75</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2456,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1.038017651052274</v>
+        <v>1.03801765105227</v>
       </c>
       <c r="O36">
-        <v>1.015185185185185</v>
+        <v>1.01518518518518</v>
       </c>
       <c r="P36">
-        <v>1.101633393829401</v>
+        <v>1.1016333938294</v>
       </c>
       <c r="Q36">
-        <v>0.9742429516185173</v>
+        <v>0.974242951618517</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2488,13 +3166,13 @@
         <v>1259127.16</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2509,19 +3187,19 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>1.055591890124264</v>
+        <v>1.05559189012426</v>
       </c>
       <c r="O37">
         <v>1.08245165997811</v>
       </c>
       <c r="P37">
-        <v>0.9924217462932454</v>
+        <v>0.992421746293245</v>
       </c>
       <c r="Q37">
         <v>1.0843158270811</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>86</v>
       </c>
@@ -2529,7 +3207,7 @@
         <v>94.36</v>
       </c>
       <c r="C38">
-        <v>83.60000000000001</v>
+        <v>83.6</v>
       </c>
       <c r="D38">
         <v>91</v>
@@ -2541,13 +3219,13 @@
         <v>116780.85</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2582,13 +3260,13 @@
         <v>110470.92</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2606,7 +3284,7 @@
         <v>1.09156422212802</v>
       </c>
       <c r="O39">
-        <v>1.028708133971292</v>
+        <v>1.02870813397129</v>
       </c>
       <c r="P39">
         <v>1.06021978021978</v>
@@ -2635,13 +3313,13 @@
         <v>127014.18</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2656,16 +3334,16 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>1.066796116504854</v>
+        <v>1.06679611650485</v>
       </c>
       <c r="O40">
-        <v>1.095581395348837</v>
+        <v>1.09558139534884</v>
       </c>
       <c r="P40">
-        <v>1.080223880597015</v>
+        <v>1.08022388059702</v>
       </c>
       <c r="Q40">
-        <v>1.095581395348837</v>
+        <v>1.09558139534884</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2688,13 +3366,13 @@
         <v>108614.56</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2709,16 +3387,16 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>0.9699672369858027</v>
+        <v>0.969967236985803</v>
       </c>
       <c r="O41">
-        <v>1.062513266822331</v>
+        <v>1.06251326682233</v>
       </c>
       <c r="P41">
         <v>0.991268470543082</v>
       </c>
       <c r="Q41">
-        <v>1.103799617915517</v>
+        <v>1.10379961791552</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2741,13 +3419,13 @@
         <v>151941.17</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2762,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1.069619065490711</v>
+        <v>1.06961906549071</v>
       </c>
       <c r="O42">
-        <v>1.011287583657976</v>
+        <v>1.01128758365798</v>
       </c>
       <c r="P42">
-        <v>1.034943374310328</v>
+        <v>1.03494337431033</v>
       </c>
       <c r="Q42">
-        <v>0.9798076923076924</v>
+        <v>0.979807692307692</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2791,16 +3469,16 @@
         <v>873653312</v>
       </c>
       <c r="F43">
-        <v>81747.79000000001</v>
+        <v>81747.79</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2815,19 +3493,19 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <v>0.9726315789473684</v>
+        <v>0.972631578947368</v>
       </c>
       <c r="O43">
         <v>1.01935993678388</v>
       </c>
       <c r="P43">
-        <v>1.000748222970445</v>
+        <v>1.00074822297044</v>
       </c>
       <c r="Q43">
-        <v>1.064474975466143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>1.06447497546614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>24.76</v>
       </c>
@@ -2847,13 +3525,13 @@
         <v>526628.92</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2888,13 +3566,13 @@
         <v>460186.62</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2909,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0.9446688206785137</v>
+        <v>0.944668820678514</v>
       </c>
       <c r="O45">
-        <v>0.9411496350364962</v>
+        <v>0.941149635036496</v>
       </c>
       <c r="P45">
-        <v>1.033484162895927</v>
+        <v>1.03348416289593</v>
       </c>
       <c r="Q45">
-        <v>0.8966074313408723</v>
+        <v>0.896607431340872</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2941,13 +3619,13 @@
         <v>540098.24</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2962,16 +3640,16 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>1.171868319794784</v>
+        <v>1.17186831979478</v>
       </c>
       <c r="O46">
-        <v>1.133301017935046</v>
+        <v>1.13330101793505</v>
       </c>
       <c r="P46">
-        <v>1.200087565674256</v>
+        <v>1.20008756567426</v>
       </c>
       <c r="Q46">
-        <v>1.076126126126126</v>
+        <v>1.07612612612613</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2994,13 +3672,13 @@
         <v>532572.91</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3018,13 +3696,13 @@
         <v>1.14009485589201</v>
       </c>
       <c r="O47">
-        <v>1.137724550898204</v>
+        <v>1.1377245508982</v>
       </c>
       <c r="P47">
-        <v>0.9912440715067494</v>
+        <v>0.991244071506749</v>
       </c>
       <c r="Q47">
-        <v>1.191293428212641</v>
+        <v>1.19129342821264</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3047,13 +3725,13 @@
         <v>409377.48</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3071,10 +3749,10 @@
         <v>0.88576</v>
       </c>
       <c r="O48">
-        <v>0.9537593984962406</v>
+        <v>0.953759398496241</v>
       </c>
       <c r="P48">
-        <v>1.018770702981229</v>
+        <v>1.01877070298123</v>
       </c>
       <c r="Q48">
         <v>0.915671117357695</v>
@@ -3100,13 +3778,13 @@
         <v>401978.92</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3124,16 +3802,16 @@
         <v>1.02528901734104</v>
       </c>
       <c r="O49">
-        <v>1.029562475364604</v>
+        <v>1.0295624753646</v>
       </c>
       <c r="P49">
-        <v>0.9537572254335261</v>
+        <v>0.953757225433526</v>
       </c>
       <c r="Q49">
-        <v>1.019953952417498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>1.0199539524175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>14.25</v>
       </c>
@@ -3153,13 +3831,13 @@
         <v>3141585.6</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H50" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3194,13 +3872,13 @@
         <v>2293705.85</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3215,16 +3893,16 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1.176895306859206</v>
+        <v>1.17689530685921</v>
       </c>
       <c r="O51">
-        <v>1.198033707865168</v>
+        <v>1.19803370786517</v>
       </c>
       <c r="P51">
         <v>1.2</v>
       </c>
       <c r="Q51">
-        <v>1.207017543859649</v>
+        <v>1.20701754385965</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3247,13 +3925,13 @@
         <v>3770244.45</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -3268,16 +3946,16 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1.134969325153374</v>
+        <v>1.13496932515337</v>
       </c>
       <c r="O52">
-        <v>1.126025791324736</v>
+        <v>1.12602579132474</v>
       </c>
       <c r="P52">
-        <v>1.001533742331288</v>
+        <v>1.00153374233129</v>
       </c>
       <c r="Q52">
-        <v>1.251162790697675</v>
+        <v>1.25116279069767</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3300,13 +3978,13 @@
         <v>3324186.47</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3321,16 +3999,16 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0.9324324324324325</v>
+        <v>0.932432432432432</v>
       </c>
       <c r="O53">
-        <v>0.9635606454971369</v>
+        <v>0.963560645497137</v>
       </c>
       <c r="P53">
-        <v>1.009698825931598</v>
+        <v>1.0096988259316</v>
       </c>
       <c r="Q53">
-        <v>0.9456319702602232</v>
+        <v>0.945631970260223</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3353,13 +4031,13 @@
         <v>3220688</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3377,13 +4055,13 @@
         <v>1.0256038647343</v>
       </c>
       <c r="O54">
-        <v>0.9848730415991356</v>
+        <v>0.984873041599136</v>
       </c>
       <c r="P54">
-        <v>1.068250758341759</v>
+        <v>1.06825075834176</v>
       </c>
       <c r="Q54">
-        <v>0.9238329238329238</v>
+        <v>0.923832923832924</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3406,13 +4084,13 @@
         <v>3040906.88</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H55" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I55" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -3427,19 +4105,19 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>1.040979745642958</v>
+        <v>1.04097974564296</v>
       </c>
       <c r="O55">
-        <v>1.100383982446517</v>
+        <v>1.10038398244652</v>
       </c>
       <c r="P55">
         <v>0.95929957406531</v>
       </c>
       <c r="Q55">
-        <v>1.093085106382979</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>1.09308510638298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>28.73</v>
       </c>
@@ -3459,13 +4137,13 @@
         <v>1371721.76</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3500,13 +4178,13 @@
         <v>1477488.75</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3521,16 +4199,16 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1.038017651052274</v>
+        <v>1.03801765105227</v>
       </c>
       <c r="O57">
-        <v>1.015185185185185</v>
+        <v>1.01518518518518</v>
       </c>
       <c r="P57">
-        <v>1.101633393829401</v>
+        <v>1.1016333938294</v>
       </c>
       <c r="Q57">
-        <v>0.9742429516185173</v>
+        <v>0.974242951618517</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3553,13 +4231,13 @@
         <v>1259127.16</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -3574,13 +4252,13 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1.055591890124264</v>
+        <v>1.05559189012426</v>
       </c>
       <c r="O58">
         <v>1.08245165997811</v>
       </c>
       <c r="P58">
-        <v>0.9924217462932454</v>
+        <v>0.992421746293245</v>
       </c>
       <c r="Q58">
         <v>1.0843158270811</v>
@@ -3606,13 +4284,13 @@
         <v>1267740.98</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -3627,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <v>1.003407682775713</v>
+        <v>1.00340768277571</v>
       </c>
       <c r="O59">
-        <v>0.9942703067071115</v>
+        <v>0.994270306707111</v>
       </c>
       <c r="P59">
         <v>1.01660026560425</v>
       </c>
       <c r="Q59">
-        <v>1.027677100494234</v>
+        <v>1.02767710049423</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3659,13 +4337,13 @@
         <v>1630814.08</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3680,16 +4358,16 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1.134300710095709</v>
+        <v>1.13430071009571</v>
       </c>
       <c r="O60">
-        <v>0.9952542372881356</v>
+        <v>0.995254237288136</v>
       </c>
       <c r="P60">
-        <v>1.151208360548661</v>
+        <v>1.15120836054866</v>
       </c>
       <c r="Q60">
-        <v>0.9451747354921449</v>
+        <v>0.945174735492145</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3712,13 +4390,13 @@
         <v>1440939.2</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3733,19 +4411,19 @@
         <v>1</v>
       </c>
       <c r="N61">
-        <v>1.030484485574306</v>
+        <v>1.03048448557431</v>
       </c>
       <c r="O61">
-        <v>1.176089918256131</v>
+        <v>1.17608991825613</v>
       </c>
       <c r="P61">
-        <v>1.029787234042553</v>
+        <v>1.02978723404255</v>
       </c>
       <c r="Q61">
-        <v>1.204206241519674</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>1.20420624151967</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>26.75</v>
       </c>
@@ -3765,13 +4443,13 @@
         <v>1080284.17</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I62" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3806,13 +4484,13 @@
         <v>1090095.57</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I63" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -3827,16 +4505,16 @@
         <v>1</v>
       </c>
       <c r="N63">
-        <v>1.041953457882661</v>
+        <v>1.04195345788266</v>
       </c>
       <c r="O63">
-        <v>1.096711041503524</v>
+        <v>1.09671104150352</v>
       </c>
       <c r="P63">
-        <v>1.008801624915369</v>
+        <v>1.00880162491537</v>
       </c>
       <c r="Q63">
-        <v>1.121495327102804</v>
+        <v>1.1214953271028</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3859,13 +4537,13 @@
         <v>837582.72</v>
       </c>
       <c r="G64" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I64" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3880,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0.9468386284995283</v>
+        <v>0.946838628499528</v>
       </c>
       <c r="O64">
         <v>0.982506247768654</v>
       </c>
       <c r="P64">
-        <v>1.006711409395973</v>
+        <v>1.00671140939597</v>
       </c>
       <c r="Q64">
-        <v>0.9456666666666667</v>
+        <v>0.945666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -3912,13 +4590,13 @@
         <v>937702.8</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I65" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3933,16 +4611,16 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>1.051827242524917</v>
+        <v>1.05182724252492</v>
       </c>
       <c r="O65">
-        <v>1.049781976744186</v>
+        <v>1.04978197674419</v>
       </c>
       <c r="P65">
-        <v>0.9733333333333333</v>
+        <v>0.973333333333333</v>
       </c>
       <c r="Q65">
-        <v>1.040183292210081</v>
+        <v>1.04018329221008</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -3965,13 +4643,13 @@
         <v>725891.76</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I66" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3986,16 +4664,16 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>0.9535691724573595</v>
+        <v>0.95356917245736</v>
       </c>
       <c r="O66">
-        <v>1.002076843198338</v>
+        <v>1.00207684319834</v>
       </c>
       <c r="P66">
-        <v>1.023287671232877</v>
+        <v>1.02328767123288</v>
       </c>
       <c r="Q66">
-        <v>1.003049813622501</v>
+        <v>1.0030498136225</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4018,13 +4696,13 @@
         <v>1230544.16</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I67" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -4039,19 +4717,19 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1.187810533289169</v>
+        <v>1.18781053328917</v>
       </c>
       <c r="O67">
-        <v>0.9854922279792747</v>
+        <v>0.985492227979275</v>
       </c>
       <c r="P67">
         <v>1.14524765729585</v>
       </c>
       <c r="Q67">
-        <v>0.9743243243243243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>0.974324324324324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>41.37</v>
       </c>
@@ -4071,13 +4749,13 @@
         <v>283410.24</v>
       </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I68" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4112,13 +4790,13 @@
         <v>146417.8</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I69" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -4133,16 +4811,16 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>1.014182849661794</v>
+        <v>1.01418284966179</v>
       </c>
       <c r="O69">
         <v>1.08390243902439</v>
       </c>
       <c r="P69">
-        <v>0.9980022197558268</v>
+        <v>0.998002219755827</v>
       </c>
       <c r="Q69">
-        <v>1.117234711143341</v>
+        <v>1.11723471114334</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4165,13 +4843,13 @@
         <v>165464.83</v>
       </c>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I70" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -4186,16 +4864,16 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>1.010111876075731</v>
+        <v>1.01011187607573</v>
       </c>
       <c r="O70">
-        <v>1.008325832583258</v>
+        <v>1.00832583258326</v>
       </c>
       <c r="P70">
-        <v>1.024243772241993</v>
+        <v>1.02424377224199</v>
       </c>
       <c r="Q70">
-        <v>0.9800951968844657</v>
+        <v>0.980095196884466</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4218,13 +4896,13 @@
         <v>134667.4</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H71" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I71" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -4239,16 +4917,16 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1.003194888178914</v>
+        <v>1.00319488817891</v>
       </c>
       <c r="O71">
-        <v>1.006918098638697</v>
+        <v>1.0069180986387</v>
       </c>
       <c r="P71">
-        <v>1.008686210640608</v>
+        <v>1.00868621064061</v>
       </c>
       <c r="Q71">
-        <v>1.013907284768212</v>
+        <v>1.01390728476821</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4271,13 +4949,13 @@
         <v>192445.44</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I72" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -4292,16 +4970,16 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <v>1.057324840764331</v>
+        <v>1.05732484076433</v>
       </c>
       <c r="O72">
-        <v>1.009751773049645</v>
+        <v>1.00975177304965</v>
       </c>
       <c r="P72">
         <v>1.02497308934338</v>
       </c>
       <c r="Q72">
-        <v>1.011539298933159</v>
+        <v>1.01153929893316</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4324,13 +5002,13 @@
         <v>194036.75</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I73" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -4345,27 +5023,27 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <v>1.032329317269076</v>
+        <v>1.03232931726908</v>
       </c>
       <c r="O73">
-        <v>1.036215978928885</v>
+        <v>1.03621597892888</v>
       </c>
       <c r="P73">
-        <v>1.060701533291325</v>
+        <v>1.06070153329132</v>
       </c>
       <c r="Q73">
-        <v>1.027765820060267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>1.02776582006027</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74">
-        <v>99.96000000000001</v>
+        <v>99.96</v>
       </c>
       <c r="B74">
         <v>118</v>
       </c>
       <c r="C74">
-        <v>96.01000000000001</v>
+        <v>96.01</v>
       </c>
       <c r="D74">
         <v>107.12</v>
@@ -4377,13 +5055,13 @@
         <v>321791.39</v>
       </c>
       <c r="G74" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I74" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4418,13 +5096,13 @@
         <v>211666.15</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4439,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>0.9152542372881356</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="O75">
-        <v>1.056869076137902</v>
+        <v>1.0568690761379</v>
       </c>
       <c r="P75">
         <v>0.979462285287528</v>
       </c>
       <c r="Q75">
-        <v>1.052521008403361</v>
+        <v>1.05252100840336</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4471,13 +5149,13 @@
         <v>205582.26</v>
       </c>
       <c r="G76" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I76" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -4492,16 +5170,16 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <v>1.044444444444445</v>
+        <v>1.04444444444444</v>
       </c>
       <c r="O76">
-        <v>1.037548043756775</v>
+        <v>1.03754804375678</v>
       </c>
       <c r="P76">
         <v>1.01315287838353</v>
       </c>
       <c r="Q76">
-        <v>1.007508791939929</v>
+        <v>1.00750879193993</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4524,13 +5202,13 @@
         <v>198664.32</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I77" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -4545,16 +5223,16 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>0.9894503546099291</v>
+        <v>0.989450354609929</v>
       </c>
       <c r="O77">
-        <v>1.007028875379939</v>
+        <v>1.00702887537994</v>
       </c>
       <c r="P77">
-        <v>1.041110065851364</v>
+        <v>1.04111006585136</v>
       </c>
       <c r="Q77">
-        <v>1.046037735849056</v>
+        <v>1.04603773584906</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4577,13 +5255,13 @@
         <v>201765.39</v>
       </c>
       <c r="G78" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I78" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -4598,16 +5276,16 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <v>1.074276498521638</v>
+        <v>1.07427649852164</v>
       </c>
       <c r="O78">
-        <v>1.064704772684399</v>
+        <v>1.0647047726844</v>
       </c>
       <c r="P78">
         <v>1.02213788741303</v>
       </c>
       <c r="Q78">
-        <v>1.018037518037518</v>
+        <v>1.01803751803752</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4630,13 +5308,13 @@
         <v>237602.44</v>
       </c>
       <c r="G79" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I79" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -4651,19 +5329,19 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>1.095412844036697</v>
+        <v>1.0954128440367</v>
       </c>
       <c r="O79">
-        <v>1.006732813607371</v>
+        <v>1.00673281360737</v>
       </c>
       <c r="P79">
-        <v>1.050919377652051</v>
+        <v>1.05091937765205</v>
       </c>
       <c r="Q79">
-        <v>1.024184975194897</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>1.0241849751949</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>5.24</v>
       </c>
@@ -4683,13 +5361,13 @@
         <v>7485940.93</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -4724,13 +5402,13 @@
         <v>6337379.54</v>
       </c>
       <c r="G81" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -4745,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>1.009541984732824</v>
+        <v>1.00954198473282</v>
       </c>
       <c r="O81">
-        <v>0.9574036511156186</v>
+        <v>0.957403651115619</v>
       </c>
       <c r="P81">
-        <v>0.9217557251908397</v>
+        <v>0.92175572519084</v>
       </c>
       <c r="Q81">
         <v>0.935114503816794</v>
@@ -4777,13 +5455,13 @@
         <v>7833152.27</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -4798,16 +5476,16 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>1.003780718336484</v>
+        <v>1.00378071833648</v>
       </c>
       <c r="O82">
-        <v>0.9809322033898306</v>
+        <v>0.980932203389831</v>
       </c>
       <c r="P82">
-        <v>1.099378881987578</v>
+        <v>1.09937888198758</v>
       </c>
       <c r="Q82">
-        <v>0.9693877551020408</v>
+        <v>0.969387755102041</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -4830,13 +5508,13 @@
         <v>5429791.66</v>
       </c>
       <c r="G83" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -4851,16 +5529,16 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <v>0.9698681732580038</v>
+        <v>0.969868173258004</v>
       </c>
       <c r="O83">
-        <v>1.038876889848812</v>
+        <v>1.03887688984881</v>
       </c>
       <c r="P83">
-        <v>0.9265536723163841</v>
+        <v>0.926553672316384</v>
       </c>
       <c r="Q83">
-        <v>1.067368421052632</v>
+        <v>1.06736842105263</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -4871,7 +5549,7 @@
         <v>5.41</v>
       </c>
       <c r="C84">
-        <v>4.850000000000001</v>
+        <v>4.85</v>
       </c>
       <c r="D84">
         <v>5.41</v>
@@ -4883,13 +5561,13 @@
         <v>8043053.03</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -4904,16 +5582,16 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>1.050485436893204</v>
+        <v>1.0504854368932</v>
       </c>
       <c r="O84">
-        <v>1.008316008316008</v>
+        <v>1.00831600831601</v>
       </c>
       <c r="P84">
-        <v>1.099593495934959</v>
+        <v>1.09959349593496</v>
       </c>
       <c r="Q84">
-        <v>0.9684418145956607</v>
+        <v>0.968441814595661</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -4927,7 +5605,7 @@
         <v>5.33</v>
       </c>
       <c r="D85">
-        <v>5.600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="E85">
         <v>4864134144</v>
@@ -4936,13 +5614,13 @@
         <v>8722161.34</v>
       </c>
       <c r="G85" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -4957,19 +5635,19 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <v>1.096118299445471</v>
+        <v>1.09611829944547</v>
       </c>
       <c r="O85">
-        <v>1.098969072164948</v>
+        <v>1.09896907216495</v>
       </c>
       <c r="P85">
-        <v>1.035120147874307</v>
+        <v>1.03512014787431</v>
       </c>
       <c r="Q85">
-        <v>1.103869653767821</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+        <v>1.10386965376782</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>33.92</v>
       </c>
@@ -4989,13 +5667,13 @@
         <v>551650.64</v>
       </c>
       <c r="G86" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H86" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I86" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5030,13 +5708,13 @@
         <v>647609.79</v>
       </c>
       <c r="G87" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H87" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I87" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -5051,16 +5729,16 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <v>1.091666666666667</v>
+        <v>1.09166666666667</v>
       </c>
       <c r="O87">
-        <v>1.092519083969466</v>
+        <v>1.09251908396947</v>
       </c>
       <c r="P87">
-        <v>1.050126015121815</v>
+        <v>1.05012601512182</v>
       </c>
       <c r="Q87">
-        <v>1.094634433962264</v>
+        <v>1.09463443396226</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5083,13 +5761,13 @@
         <v>549041</v>
       </c>
       <c r="G88" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H88" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I88" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -5104,16 +5782,16 @@
         <v>1</v>
       </c>
       <c r="N88">
-        <v>0.9697201017811704</v>
+        <v>0.96972010178117</v>
       </c>
       <c r="O88">
-        <v>0.9843487982112912</v>
+        <v>0.984348798211291</v>
       </c>
       <c r="P88">
-        <v>0.9469333333333333</v>
+        <v>0.946933333333333</v>
       </c>
       <c r="Q88">
-        <v>1.012119579854565</v>
+        <v>1.01211957985457</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5136,13 +5814,13 @@
         <v>361302.21</v>
       </c>
       <c r="G89" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H89" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I89" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -5160,13 +5838,13 @@
         <v>0.978220939385988</v>
       </c>
       <c r="O89">
-        <v>0.9937535491198183</v>
+        <v>0.993753549119818</v>
       </c>
       <c r="P89">
         <v>1.00056322162771</v>
       </c>
       <c r="Q89">
-        <v>0.9393294305481641</v>
+        <v>0.939329430548164</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5189,13 +5867,13 @@
         <v>520064.56</v>
       </c>
       <c r="G90" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H90" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I90" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -5210,13 +5888,13 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <v>1.032725321888412</v>
+        <v>1.03272532188841</v>
       </c>
       <c r="O90">
-        <v>1.039714285714286</v>
+        <v>1.03971428571429</v>
       </c>
       <c r="P90">
-        <v>1.074303405572755</v>
+        <v>1.07430340557275</v>
       </c>
       <c r="Q90">
         <v>1.03399433427762</v>
@@ -5239,16 +5917,16 @@
         <v>2271816192</v>
       </c>
       <c r="F91">
-        <v>584544.2000000001</v>
+        <v>584544.2</v>
       </c>
       <c r="G91" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I91" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -5263,19 +5941,19 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <v>1.055324675324675</v>
+        <v>1.05532467532467</v>
       </c>
       <c r="O91">
-        <v>1.028304479252542</v>
+        <v>1.02830447925254</v>
       </c>
       <c r="P91">
-        <v>1.056588944197013</v>
+        <v>1.05658894419701</v>
       </c>
       <c r="Q91">
-        <v>1.041095890410959</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
+        <v>1.04109589041096</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>110</v>
       </c>
@@ -5295,13 +5973,13 @@
         <v>167434.89</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I92" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5336,13 +6014,13 @@
         <v>269219.28</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I93" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -5357,16 +6035,16 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <v>1.100025280188759</v>
+        <v>1.10002528018876</v>
       </c>
       <c r="O93">
-        <v>1.115132178669098</v>
+        <v>1.1151321786691</v>
       </c>
       <c r="P93">
-        <v>1.084351563158338</v>
+        <v>1.08435156315834</v>
       </c>
       <c r="Q93">
-        <v>1.124909090909091</v>
+        <v>1.12490909090909</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5389,13 +6067,13 @@
         <v>215506.47</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I94" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5413,13 +6091,13 @@
         <v>1.00582197027731</v>
       </c>
       <c r="O94">
-        <v>1.024115098504046</v>
+        <v>1.02411509850405</v>
       </c>
       <c r="P94">
-        <v>0.9869443580976064</v>
+        <v>0.986944358097606</v>
       </c>
       <c r="Q94">
-        <v>1.030467108453208</v>
+        <v>1.03046710845321</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5442,13 +6120,13 @@
         <v>174070</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H95" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I95" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5463,16 +6141,16 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>0.9747905559786748</v>
+        <v>0.974790555978675</v>
       </c>
       <c r="O95">
-        <v>0.9581736909323116</v>
+        <v>0.958173690932312</v>
       </c>
       <c r="P95">
         <v>0.952755905511811</v>
       </c>
       <c r="Q95">
-        <v>0.9919222021802212</v>
+        <v>0.991922202180221</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5495,13 +6173,13 @@
         <v>251805.01</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -5516,16 +6194,16 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0.9921087584967575</v>
+        <v>0.992108758496758</v>
       </c>
       <c r="O96">
-        <v>0.9932522492502499</v>
+        <v>0.99325224925025</v>
       </c>
       <c r="P96">
-        <v>1.034380165289256</v>
+        <v>1.03438016528926</v>
       </c>
       <c r="Q96">
-        <v>0.9629981024667931</v>
+        <v>0.962998102466793</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5548,13 +6226,13 @@
         <v>302901.3</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H97" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -5569,19 +6247,19 @@
         <v>1</v>
       </c>
       <c r="N97">
-        <v>1.084265238620255</v>
+        <v>1.08426523862025</v>
       </c>
       <c r="O97">
-        <v>1.033296989012832</v>
+        <v>1.03329698901283</v>
       </c>
       <c r="P97">
-        <v>1.075982742090125</v>
+        <v>1.07598274209012</v>
       </c>
       <c r="Q97">
-        <v>1.018062397372742</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
+        <v>1.01806239737274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>50.25</v>
       </c>
@@ -5601,13 +6279,13 @@
         <v>408102.72</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I98" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5642,13 +6320,13 @@
         <v>496216.96</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I99" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5663,16 +6341,16 @@
         <v>1</v>
       </c>
       <c r="N99">
-        <v>1.129835818078883</v>
+        <v>1.12983581807888</v>
       </c>
       <c r="O99">
-        <v>0.9970149253731344</v>
+        <v>0.997014925373134</v>
       </c>
       <c r="P99">
-        <v>1.144672531769306</v>
+        <v>1.14467253176931</v>
       </c>
       <c r="Q99">
-        <v>1.032835820895522</v>
+        <v>1.03283582089552</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -5695,13 +6373,13 @@
         <v>415359.99</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I100" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -5716,16 +6394,16 @@
         <v>1</v>
       </c>
       <c r="N100">
-        <v>1.018874227492901</v>
+        <v>1.0188742274929</v>
       </c>
       <c r="O100">
         <v>1.15249500998004</v>
       </c>
       <c r="P100">
-        <v>1.003415883859949</v>
+        <v>1.00341588385995</v>
       </c>
       <c r="Q100">
-        <v>1.141425818882466</v>
+        <v>1.14142581888247</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -5748,13 +6426,13 @@
         <v>421119.76</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I101" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -5769,16 +6447,16 @@
         <v>1</v>
       </c>
       <c r="N101">
-        <v>1.008196721311475</v>
+        <v>1.00819672131148</v>
       </c>
       <c r="O101">
-        <v>0.9612054035330793</v>
+        <v>0.961205403533079</v>
       </c>
       <c r="P101">
-        <v>0.9494468085106383</v>
+        <v>0.949446808510638</v>
       </c>
       <c r="Q101">
-        <v>1.015530047265361</v>
+        <v>1.01553004726536</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -5801,13 +6479,13 @@
         <v>489407.78</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H102" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I102" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -5822,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>1.034634146341463</v>
+        <v>1.03463414634146</v>
       </c>
       <c r="O102">
-        <v>1.024144144144144</v>
+        <v>1.02414414414414</v>
       </c>
       <c r="P102">
         <v>1.07906059519541</v>
@@ -5854,13 +6532,13 @@
         <v>366331.01</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I103" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -5875,19 +6553,19 @@
         <v>1</v>
       </c>
       <c r="N103">
-        <v>0.9193776520509194</v>
+        <v>0.919377652050919</v>
       </c>
       <c r="O103">
-        <v>0.9656931738212526</v>
+        <v>0.965693173821253</v>
       </c>
       <c r="P103">
-        <v>0.9270642963947501</v>
+        <v>0.92706429639475</v>
       </c>
       <c r="Q103">
-        <v>1.002814919071077</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+        <v>1.00281491907108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>104.16</v>
       </c>
@@ -5904,16 +6582,16 @@
         <v>6885517312</v>
       </c>
       <c r="F104">
-        <v>620005.4400000001</v>
+        <v>620005.44</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I104" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -5948,13 +6626,13 @@
         <v>636920.88</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I105" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5969,16 +6647,16 @@
         <v>1</v>
       </c>
       <c r="N105">
-        <v>1.082699619771863</v>
+        <v>1.08269961977186</v>
       </c>
       <c r="O105">
-        <v>1.089691714836224</v>
+        <v>1.08969171483622</v>
       </c>
       <c r="P105">
-        <v>1.071958133449629</v>
+        <v>1.07195813344963</v>
       </c>
       <c r="Q105">
-        <v>1.087941628264209</v>
+        <v>1.08794162826421</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6001,13 +6679,13 @@
         <v>359245.14</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I106" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -6022,16 +6700,16 @@
         <v>1</v>
       </c>
       <c r="N106">
-        <v>0.9885864793678665</v>
+        <v>0.988586479367866</v>
       </c>
       <c r="O106">
-        <v>1.059853240208646</v>
+        <v>1.05985324020865</v>
       </c>
       <c r="P106">
-        <v>0.9804719283970708</v>
+        <v>0.980471928397071</v>
       </c>
       <c r="Q106">
-        <v>1.058948111542534</v>
+        <v>1.05894811154253</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6054,13 +6732,13 @@
         <v>313077.14</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I107" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -6075,16 +6753,16 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>0.9841756822218635</v>
+        <v>0.984175682221863</v>
       </c>
       <c r="O107">
-        <v>0.9678845512178846</v>
+        <v>0.967884551217885</v>
       </c>
       <c r="P107">
-        <v>0.9780082987551868</v>
+        <v>0.978008298755187</v>
       </c>
       <c r="Q107">
-        <v>0.9916666666666667</v>
+        <v>0.991666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6107,13 +6785,13 @@
         <v>504030.3</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I108" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -6131,13 +6809,13 @@
         <v>1.06349466776046</v>
       </c>
       <c r="O108">
-        <v>0.9868999396707748</v>
+        <v>0.986899939670775</v>
       </c>
       <c r="P108">
-        <v>1.100042426813746</v>
+        <v>1.10004242681375</v>
       </c>
       <c r="Q108">
-        <v>0.9915126050420169</v>
+        <v>0.991512605042017</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6157,16 +6835,16 @@
         <v>7077664768</v>
       </c>
       <c r="F109">
-        <v>535336.0700000001</v>
+        <v>535336.07</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I109" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -6181,19 +6859,19 @@
         <v>1</v>
       </c>
       <c r="N109">
-        <v>1.062943535945696</v>
+        <v>1.0629435359457</v>
       </c>
       <c r="O109">
-        <v>1.119640206095537</v>
+        <v>1.11964020609554</v>
       </c>
       <c r="P109">
-        <v>1.024838012958963</v>
+        <v>1.02483801295896</v>
       </c>
       <c r="Q109">
-        <v>1.100008475294516</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+        <v>1.10000847529452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>27.15</v>
       </c>
@@ -6213,13 +6891,13 @@
         <v>560113.49</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H110" t="s">
         <v>58</v>
       </c>
       <c r="I110" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -6254,13 +6932,13 @@
         <v>674360.79</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H111" t="s">
         <v>58</v>
       </c>
       <c r="I111" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -6275,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="N111">
-        <v>1.087997512437811</v>
+        <v>1.08799751243781</v>
       </c>
       <c r="O111">
         <v>1.17146017699115</v>
@@ -6284,7 +6962,7 @@
         <v>1.02363184079602</v>
       </c>
       <c r="Q111">
-        <v>1.269981583793738</v>
+        <v>1.26998158379374</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6307,13 +6985,13 @@
         <v>576925.12</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H112" t="s">
         <v>58</v>
       </c>
       <c r="I112" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -6328,13 +7006,13 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <v>1.053729637039154</v>
+        <v>1.05372963703915</v>
       </c>
       <c r="O112">
-        <v>1.063267233238905</v>
+        <v>1.06326723323891</v>
       </c>
       <c r="P112">
-        <v>1.064094775212637</v>
+        <v>1.06409477521264</v>
       </c>
       <c r="Q112">
         <v>1.0165313225058</v>
@@ -6360,13 +7038,13 @@
         <v>494030.04</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H113" t="s">
         <v>58</v>
       </c>
       <c r="I113" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -6381,16 +7059,16 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>1.011662598318416</v>
+        <v>1.01166259831842</v>
       </c>
       <c r="O113">
         <v>0.992599171107164</v>
       </c>
       <c r="P113">
-        <v>1.046531544390523</v>
+        <v>1.04653154439052</v>
       </c>
       <c r="Q113">
-        <v>0.9760342368045648</v>
+        <v>0.976034236804565</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -6413,13 +7091,13 @@
         <v>473834.64</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H114" t="s">
         <v>58</v>
       </c>
       <c r="I114" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -6434,16 +7112,16 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <v>0.9994638069705093</v>
+        <v>0.999463806970509</v>
       </c>
       <c r="O114">
-        <v>1.031911720847003</v>
+        <v>1.031911720847</v>
       </c>
       <c r="P114">
         <v>0.98417894162575</v>
       </c>
       <c r="Q114">
-        <v>1.047062262496346</v>
+        <v>1.04706226249635</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -6466,13 +7144,13 @@
         <v>348082</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H115" t="s">
         <v>58</v>
       </c>
       <c r="I115" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -6487,10 +7165,10 @@
         <v>1</v>
       </c>
       <c r="N115">
-        <v>0.9986587982832619</v>
+        <v>0.998658798283262</v>
       </c>
       <c r="O115">
-        <v>1.028612716763006</v>
+        <v>1.02861271676301</v>
       </c>
       <c r="P115">
         <v>1.01940133037694</v>
@@ -6499,7 +7177,7 @@
         <v>1.02177554438861</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>22.55</v>
       </c>
@@ -6519,13 +7197,13 @@
         <v>791294.91</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H116" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I116" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6560,13 +7238,13 @@
         <v>1111620.33</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I117" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -6581,16 +7259,16 @@
         <v>1</v>
       </c>
       <c r="N117">
-        <v>1.100300525920361</v>
+        <v>1.10030052592036</v>
       </c>
       <c r="O117">
-        <v>1.205776173285199</v>
+        <v>1.2057761732852</v>
       </c>
       <c r="P117">
         <v>1.06686701728024</v>
       </c>
       <c r="Q117">
-        <v>1.241685144124169</v>
+        <v>1.24168514412417</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -6613,13 +7291,13 @@
         <v>803588.8</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I118" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6637,10 +7315,10 @@
         <v>1</v>
       </c>
       <c r="O118">
-        <v>1.011601796407186</v>
+        <v>1.01160179640719</v>
       </c>
       <c r="P118">
-        <v>0.9764084507042253</v>
+        <v>0.976408450704225</v>
       </c>
       <c r="Q118">
         <v>1.03</v>
@@ -6666,13 +7344,13 @@
         <v>614824.39</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H119" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I119" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6687,16 +7365,16 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>0.9795151928986002</v>
+        <v>0.9795151928986</v>
       </c>
       <c r="O119">
-        <v>0.9922308546059934</v>
+        <v>0.992230854605993</v>
       </c>
       <c r="P119">
-        <v>0.9790840245221782</v>
+        <v>0.979084024522178</v>
       </c>
       <c r="Q119">
-        <v>0.9649791955617198</v>
+        <v>0.96497919556172</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -6719,13 +7397,13 @@
         <v>495018.8</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H120" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I120" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6740,16 +7418,16 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>0.9707215057511328</v>
+        <v>0.970721505751133</v>
       </c>
       <c r="O120">
-        <v>0.9947800149142431</v>
+        <v>0.994780014914243</v>
       </c>
       <c r="P120">
-        <v>1.001104972375691</v>
+        <v>1.00110497237569</v>
       </c>
       <c r="Q120">
-        <v>0.9770032339202299</v>
+        <v>0.97700323392023</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -6772,13 +7450,13 @@
         <v>869288.24</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H121" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I121" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -6793,19 +7471,19 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <v>1.072890484739677</v>
+        <v>1.07289048473968</v>
       </c>
       <c r="O121">
-        <v>1.011994002998501</v>
+        <v>1.0119940029985</v>
       </c>
       <c r="P121">
-        <v>1.057395143487859</v>
+        <v>1.05739514348786</v>
       </c>
       <c r="Q121">
-        <v>1.012504597278411</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17">
+        <v>1.01250459727841</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>94.69</v>
       </c>
@@ -6816,7 +7494,7 @@
         <v>91.02</v>
       </c>
       <c r="D122">
-        <v>99.21000000000001</v>
+        <v>99.21</v>
       </c>
       <c r="E122">
         <v>2732663552</v>
@@ -6825,13 +7503,13 @@
         <v>282528.73</v>
       </c>
       <c r="G122" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H122" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I122" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -6848,13 +7526,13 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123">
-        <v>99.96000000000001</v>
+        <v>99.96</v>
       </c>
       <c r="B123">
         <v>118</v>
       </c>
       <c r="C123">
-        <v>96.01000000000001</v>
+        <v>96.01</v>
       </c>
       <c r="D123">
         <v>107.12</v>
@@ -6866,13 +7544,13 @@
         <v>321791.39</v>
       </c>
       <c r="G123" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H123" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I123" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -6887,16 +7565,16 @@
         <v>1</v>
       </c>
       <c r="N123">
-        <v>1.142525174283501</v>
+        <v>1.1425251742835</v>
       </c>
       <c r="O123">
-        <v>1.054823115798726</v>
+        <v>1.05482311579873</v>
       </c>
       <c r="P123">
-        <v>1.079729865940933</v>
+        <v>1.07972986594093</v>
       </c>
       <c r="Q123">
-        <v>1.055655296229803</v>
+        <v>1.0556552962298</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -6919,13 +7597,13 @@
         <v>211666.15</v>
       </c>
       <c r="G124" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H124" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I124" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -6940,16 +7618,16 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <v>0.9152542372881356</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="O124">
-        <v>1.056869076137902</v>
+        <v>1.0568690761379</v>
       </c>
       <c r="P124">
         <v>0.979462285287528</v>
       </c>
       <c r="Q124">
-        <v>1.052521008403361</v>
+        <v>1.05252100840336</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -6972,13 +7650,13 @@
         <v>205582.26</v>
       </c>
       <c r="G125" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H125" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I125" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -6993,16 +7671,16 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>1.044444444444445</v>
+        <v>1.04444444444444</v>
       </c>
       <c r="O125">
-        <v>1.037548043756775</v>
+        <v>1.03754804375678</v>
       </c>
       <c r="P125">
         <v>1.01315287838353</v>
       </c>
       <c r="Q125">
-        <v>1.007508791939929</v>
+        <v>1.00750879193993</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7025,13 +7703,13 @@
         <v>198664.32</v>
       </c>
       <c r="G126" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H126" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I126" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -7046,16 +7724,16 @@
         <v>1</v>
       </c>
       <c r="N126">
-        <v>0.9894503546099291</v>
+        <v>0.989450354609929</v>
       </c>
       <c r="O126">
-        <v>1.007028875379939</v>
+        <v>1.00702887537994</v>
       </c>
       <c r="P126">
-        <v>1.041110065851364</v>
+        <v>1.04111006585136</v>
       </c>
       <c r="Q126">
-        <v>1.046037735849056</v>
+        <v>1.04603773584906</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -7078,13 +7756,13 @@
         <v>201765.39</v>
       </c>
       <c r="G127" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H127" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I127" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -7099,19 +7777,19 @@
         <v>1</v>
       </c>
       <c r="N127">
-        <v>1.074276498521638</v>
+        <v>1.07427649852164</v>
       </c>
       <c r="O127">
-        <v>1.064704772684399</v>
+        <v>1.0647047726844</v>
       </c>
       <c r="P127">
         <v>1.02213788741303</v>
       </c>
       <c r="Q127">
-        <v>1.018037518037518</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
+        <v>1.01803751803752</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>19.24</v>
       </c>
@@ -7131,13 +7809,13 @@
         <v>1118549.36</v>
       </c>
       <c r="G128" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H128" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I128" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -7172,13 +7850,13 @@
         <v>791654.48</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H129" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I129" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -7202,7 +7880,7 @@
         <v>1.1</v>
       </c>
       <c r="Q129">
-        <v>1.064968814968815</v>
+        <v>1.06496881496882</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -7225,13 +7903,13 @@
         <v>1145450.23</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H130" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I130" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -7246,16 +7924,16 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <v>1.012151215121512</v>
+        <v>1.01215121512151</v>
       </c>
       <c r="O130">
-        <v>0.9838945827232796</v>
+        <v>0.98389458272328</v>
       </c>
       <c r="P130">
-        <v>0.9864986498649866</v>
+        <v>0.986498649864987</v>
       </c>
       <c r="Q130">
-        <v>1.004392386530015</v>
+        <v>1.00439238653002</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -7278,13 +7956,13 @@
         <v>1040463.28</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H131" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I131" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -7299,16 +7977,16 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <v>1.072032014228546</v>
+        <v>1.07203201422855</v>
       </c>
       <c r="O131">
-        <v>1.087797619047619</v>
+        <v>1.08779761904762</v>
       </c>
       <c r="P131">
-        <v>1.070711678832117</v>
+        <v>1.07071167883212</v>
       </c>
       <c r="Q131">
-        <v>1.093294460641399</v>
+        <v>1.0932944606414</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -7331,13 +8009,13 @@
         <v>756244.22</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H132" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I132" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -7352,16 +8030,16 @@
         <v>1</v>
       </c>
       <c r="N132">
-        <v>0.9842389050186645</v>
+        <v>0.984238905018665</v>
       </c>
       <c r="O132">
-        <v>1.027359781121751</v>
+        <v>1.02735978112175</v>
       </c>
       <c r="P132">
-        <v>1.002130379207499</v>
+        <v>1.0021303792075</v>
       </c>
       <c r="Q132">
-        <v>1.022222222222222</v>
+        <v>1.02222222222222</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -7384,13 +8062,13 @@
         <v>558697.37</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H133" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I133" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -7405,19 +8083,19 @@
         <v>1</v>
       </c>
       <c r="N133">
-        <v>0.9945217024863043</v>
+        <v>0.994521702486304</v>
       </c>
       <c r="O133">
-        <v>0.9720372836218376</v>
+        <v>0.972037283621838</v>
       </c>
       <c r="P133">
-        <v>0.9608843537414967</v>
+        <v>0.960884353741497</v>
       </c>
       <c r="Q133">
-        <v>1.003478260869565</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17">
+        <v>1.00347826086956</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>25</v>
       </c>
@@ -7437,13 +8115,13 @@
         <v>689799.97</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H134" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I134" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -7478,13 +8156,13 @@
         <v>543291.17</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H135" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I135" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -7499,13 +8177,13 @@
         <v>1</v>
       </c>
       <c r="N135">
-        <v>0.9804842790025298</v>
+        <v>0.98048427900253</v>
       </c>
       <c r="O135">
-        <v>1.042341220423412</v>
+        <v>1.04234122042341</v>
       </c>
       <c r="P135">
-        <v>1.007779074290159</v>
+        <v>1.00777907429016</v>
       </c>
       <c r="Q135">
         <v>1.038</v>
@@ -7531,13 +8209,13 @@
         <v>463308.86</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H136" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I136" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -7552,16 +8230,16 @@
         <v>1</v>
       </c>
       <c r="N136">
-        <v>0.9911537043862882</v>
+        <v>0.991153704386288</v>
       </c>
       <c r="O136">
-        <v>1.033851055356432</v>
+        <v>1.03385105535643</v>
       </c>
       <c r="P136">
-        <v>1.030490158240062</v>
+        <v>1.03049015824006</v>
       </c>
       <c r="Q136">
-        <v>1.016955684007707</v>
+        <v>1.01695568400771</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -7584,13 +8262,13 @@
         <v>319771.58</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H137" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I137" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -7605,16 +8283,16 @@
         <v>0</v>
       </c>
       <c r="N137">
-        <v>0.9929341762737076</v>
+        <v>0.992934176273708</v>
       </c>
       <c r="O137">
-        <v>0.9799691833590138</v>
+        <v>0.979969183359014</v>
       </c>
       <c r="P137">
-        <v>0.9561797752808989</v>
+        <v>0.956179775280899</v>
       </c>
       <c r="Q137">
-        <v>0.9958317544524441</v>
+        <v>0.995831754452444</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -7637,13 +8315,13 @@
         <v>395401.49</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H138" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I138" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -7658,16 +8336,16 @@
         <v>1</v>
       </c>
       <c r="N138">
-        <v>1.043820224719101</v>
+        <v>1.0438202247191</v>
       </c>
       <c r="O138">
-        <v>1.011792452830189</v>
+        <v>1.01179245283019</v>
       </c>
       <c r="P138">
-        <v>1.012142577359969</v>
+        <v>1.01214257735997</v>
       </c>
       <c r="Q138">
-        <v>1.028158295281583</v>
+        <v>1.02815829528158</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -7690,13 +8368,13 @@
         <v>335579.74</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H139" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I139" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -7711,19 +8389,19 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>0.9562253318980983</v>
+        <v>0.956225331898098</v>
       </c>
       <c r="O139">
-        <v>0.9887334887334887</v>
+        <v>0.988733488733489</v>
       </c>
       <c r="P139">
-        <v>1.010061919504644</v>
+        <v>1.01006191950464</v>
       </c>
       <c r="Q139">
-        <v>0.9563286454478165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17">
+        <v>0.956328645447816</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>26.96</v>
       </c>
@@ -7743,13 +8421,13 @@
         <v>408097.19</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H140" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I140" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -7784,13 +8462,13 @@
         <v>225303.38</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H141" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I141" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -7808,13 +8486,13 @@
         <v>0.952893175074184</v>
       </c>
       <c r="O141">
-        <v>0.9991941982272361</v>
+        <v>0.999194198227236</v>
       </c>
       <c r="P141">
-        <v>1.004405286343612</v>
+        <v>1.00440528634361</v>
       </c>
       <c r="Q141">
-        <v>0.9458456973293768</v>
+        <v>0.945845697329377</v>
       </c>
     </row>
     <row r="142" spans="1:17">
@@ -7837,13 +8515,13 @@
         <v>208759.16</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H142" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I142" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -7858,13 +8536,13 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>1.007395873880887</v>
+        <v>1.00739587388089</v>
       </c>
       <c r="O142">
-        <v>1.001209677419355</v>
+        <v>1.00120967741936</v>
       </c>
       <c r="P142">
-        <v>1.022328548644338</v>
+        <v>1.02232854864434</v>
       </c>
       <c r="Q142">
         <v>0.983529411764706</v>
@@ -7890,13 +8568,13 @@
         <v>127704.04</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H143" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I143" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -7911,16 +8589,16 @@
         <v>1</v>
       </c>
       <c r="N143">
-        <v>0.9942040185471407</v>
+        <v>0.994204018547141</v>
       </c>
       <c r="O143">
-        <v>0.9991945227547322</v>
+        <v>0.999194522754732</v>
       </c>
       <c r="P143">
-        <v>0.9894695787831513</v>
+        <v>0.989469578783151</v>
       </c>
       <c r="Q143">
-        <v>1.022328548644338</v>
+        <v>1.02232854864434</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -7943,13 +8621,13 @@
         <v>106318.03</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H144" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I144" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -7964,16 +8642,16 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>0.9937815779246016</v>
+        <v>0.993781577924602</v>
       </c>
       <c r="O144">
-        <v>1.006045949214027</v>
+        <v>1.00604594921403</v>
       </c>
       <c r="P144">
-        <v>0.9850216791486007</v>
+        <v>0.985021679148601</v>
       </c>
       <c r="Q144">
-        <v>0.9937597503900156</v>
+        <v>0.993759750390016</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -7996,13 +8674,13 @@
         <v>81279.97</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H145" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I145" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -8017,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>0.9925694172858819</v>
+        <v>0.992569417285882</v>
       </c>
       <c r="O145">
-        <v>0.9935897435897436</v>
+        <v>0.993589743589744</v>
       </c>
       <c r="P145">
-        <v>1.006802721088435</v>
+        <v>1.00680272108843</v>
       </c>
       <c r="Q145">
-        <v>0.9737048665620095</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
+        <v>0.973704866562009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>113.32</v>
       </c>
@@ -8049,13 +8727,13 @@
         <v>636920.88</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I146" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -8090,13 +8768,13 @@
         <v>359245.14</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I147" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -8111,16 +8789,16 @@
         <v>1</v>
       </c>
       <c r="N147">
-        <v>0.9885864793678665</v>
+        <v>0.988586479367866</v>
       </c>
       <c r="O147">
-        <v>1.059853240208646</v>
+        <v>1.05985324020865</v>
       </c>
       <c r="P147">
-        <v>0.9804719283970708</v>
+        <v>0.980471928397071</v>
       </c>
       <c r="Q147">
-        <v>1.058948111542534</v>
+        <v>1.05894811154253</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -8143,13 +8821,13 @@
         <v>313077.14</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H148" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I148" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -8164,16 +8842,16 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>0.9841756822218635</v>
+        <v>0.984175682221863</v>
       </c>
       <c r="O148">
-        <v>0.9678845512178846</v>
+        <v>0.967884551217885</v>
       </c>
       <c r="P148">
-        <v>0.9780082987551868</v>
+        <v>0.978008298755187</v>
       </c>
       <c r="Q148">
-        <v>0.9916666666666667</v>
+        <v>0.991666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -8196,13 +8874,13 @@
         <v>504030.3</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I149" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J149">
         <v>1</v>
@@ -8220,13 +8898,13 @@
         <v>1.06349466776046</v>
       </c>
       <c r="O149">
-        <v>0.9868999396707748</v>
+        <v>0.986899939670775</v>
       </c>
       <c r="P149">
-        <v>1.100042426813746</v>
+        <v>1.10004242681375</v>
       </c>
       <c r="Q149">
-        <v>0.9915126050420169</v>
+        <v>0.991512605042017</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -8246,16 +8924,16 @@
         <v>7077664768</v>
       </c>
       <c r="F150">
-        <v>535336.0700000001</v>
+        <v>535336.07</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H150" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I150" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J150">
         <v>1</v>
@@ -8270,16 +8948,16 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <v>1.062943535945696</v>
+        <v>1.0629435359457</v>
       </c>
       <c r="O150">
-        <v>1.119640206095537</v>
+        <v>1.11964020609554</v>
       </c>
       <c r="P150">
-        <v>1.024838012958963</v>
+        <v>1.02483801295896</v>
       </c>
       <c r="Q150">
-        <v>1.100008475294516</v>
+        <v>1.10000847529452</v>
       </c>
     </row>
     <row r="151" spans="1:17">
@@ -8302,13 +8980,13 @@
         <v>394023.98</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I151" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -8323,19 +9001,19 @@
         <v>1</v>
       </c>
       <c r="N151">
-        <v>0.9715529753265602</v>
+        <v>0.97155297532656</v>
       </c>
       <c r="O151">
-        <v>0.9762889010217611</v>
+        <v>0.976288901021761</v>
       </c>
       <c r="P151">
-        <v>0.9649254854734305</v>
+        <v>0.96492548547343</v>
       </c>
       <c r="Q151">
-        <v>1.017566838739502</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
+        <v>1.0175668387395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>16</v>
       </c>
@@ -8352,16 +9030,16 @@
         <v>1537362176</v>
       </c>
       <c r="F152">
-        <v>908448.5600000001</v>
+        <v>908448.56</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H152" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I152" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -8396,13 +9074,13 @@
         <v>815628</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H153" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I153" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J153">
         <v>1</v>
@@ -8417,13 +9095,13 @@
         <v>1</v>
       </c>
       <c r="N153">
-        <v>1.022689540675152</v>
+        <v>1.02268954067515</v>
       </c>
       <c r="O153">
-        <v>1.074790457769181</v>
+        <v>1.07479045776918</v>
       </c>
       <c r="P153">
-        <v>1.002247191011236</v>
+        <v>1.00224719101124</v>
       </c>
       <c r="Q153">
         <v>1.12</v>
@@ -8446,16 +9124,16 @@
         <v>1084715648</v>
       </c>
       <c r="F154">
-        <v>618645.6800000001</v>
+        <v>618645.68</v>
       </c>
       <c r="G154" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H154" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I154" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -8470,16 +9148,16 @@
         <v>0</v>
       </c>
       <c r="N154">
-        <v>0.9902597402597403</v>
+        <v>0.99025974025974</v>
       </c>
       <c r="O154">
-        <v>1.013197360527894</v>
+        <v>1.01319736052789</v>
       </c>
       <c r="P154">
-        <v>0.9798206278026906</v>
+        <v>0.979820627802691</v>
       </c>
       <c r="Q154">
-        <v>0.9821428571428571</v>
+        <v>0.982142857142857</v>
       </c>
     </row>
     <row r="155" spans="1:17">
@@ -8502,13 +9180,13 @@
         <v>720596.08</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H155" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I155" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -8523,16 +9201,16 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <v>1.030054644808743</v>
+        <v>1.03005464480874</v>
       </c>
       <c r="O155">
-        <v>0.9473060982830077</v>
+        <v>0.947306098283008</v>
       </c>
       <c r="P155">
         <v>0.931350114416476</v>
       </c>
       <c r="Q155">
-        <v>0.9835227272727272</v>
+        <v>0.983522727272727</v>
       </c>
     </row>
     <row r="156" spans="1:17">
@@ -8555,13 +9233,13 @@
         <v>712853.9</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H156" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I156" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -8576,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N156">
-        <v>0.9681697612732095</v>
+        <v>0.96816976127321</v>
       </c>
       <c r="O156">
         <v>1.01125</v>
       </c>
       <c r="P156">
-        <v>1.068181818181818</v>
+        <v>1.06818181818182</v>
       </c>
       <c r="Q156">
-        <v>0.9520508376660891</v>
+        <v>0.952050837666089</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -8608,13 +9286,13 @@
         <v>487457.9</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H157" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I157" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -8629,19 +9307,19 @@
         <v>1</v>
       </c>
       <c r="N157">
-        <v>0.9309589041095891</v>
+        <v>0.930958904109589</v>
       </c>
       <c r="O157">
-        <v>0.9598269468479605</v>
+        <v>0.959826946847961</v>
       </c>
       <c r="P157">
-        <v>0.9534215066129961</v>
+        <v>0.953421506612996</v>
       </c>
       <c r="Q157">
-        <v>1.011529126213592</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
+        <v>1.01152912621359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158">
         <v>106</v>
       </c>
@@ -8661,13 +9339,13 @@
         <v>205582.26</v>
       </c>
       <c r="G158" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H158" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I158" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -8702,13 +9380,13 @@
         <v>198664.32</v>
       </c>
       <c r="G159" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H159" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I159" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -8723,16 +9401,16 @@
         <v>1</v>
       </c>
       <c r="N159">
-        <v>0.9894503546099291</v>
+        <v>0.989450354609929</v>
       </c>
       <c r="O159">
-        <v>1.007028875379939</v>
+        <v>1.00702887537994</v>
       </c>
       <c r="P159">
-        <v>1.041110065851364</v>
+        <v>1.04111006585136</v>
       </c>
       <c r="Q159">
-        <v>1.046037735849056</v>
+        <v>1.04603773584906</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -8755,13 +9433,13 @@
         <v>201765.39</v>
       </c>
       <c r="G160" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H160" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I160" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J160">
         <v>1</v>
@@ -8776,16 +9454,16 @@
         <v>1</v>
       </c>
       <c r="N160">
-        <v>1.074276498521638</v>
+        <v>1.07427649852164</v>
       </c>
       <c r="O160">
-        <v>1.064704772684399</v>
+        <v>1.0647047726844</v>
       </c>
       <c r="P160">
         <v>1.02213788741303</v>
       </c>
       <c r="Q160">
-        <v>1.018037518037518</v>
+        <v>1.01803751803752</v>
       </c>
     </row>
     <row r="161" spans="1:17">
@@ -8808,13 +9486,13 @@
         <v>237602.44</v>
       </c>
       <c r="G161" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H161" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I161" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J161">
         <v>1</v>
@@ -8829,16 +9507,16 @@
         <v>1</v>
       </c>
       <c r="N161">
-        <v>1.095412844036697</v>
+        <v>1.0954128440367</v>
       </c>
       <c r="O161">
-        <v>1.006732813607371</v>
+        <v>1.00673281360737</v>
       </c>
       <c r="P161">
-        <v>1.050919377652051</v>
+        <v>1.05091937765205</v>
       </c>
       <c r="Q161">
-        <v>1.024184975194897</v>
+        <v>1.0241849751949</v>
       </c>
     </row>
     <row r="162" spans="1:17">
@@ -8861,13 +9539,13 @@
         <v>202350.31</v>
       </c>
       <c r="G162" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H162" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I162" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -8882,16 +9560,16 @@
         <v>1</v>
       </c>
       <c r="N162">
-        <v>0.9841632404446474</v>
+        <v>0.984163240444647</v>
       </c>
       <c r="O162">
         <v>1.04012671594509</v>
       </c>
       <c r="P162">
-        <v>1.048956931359354</v>
+        <v>1.04895693135935</v>
       </c>
       <c r="Q162">
-        <v>1.037972493728916</v>
+        <v>1.03797249372892</v>
       </c>
     </row>
     <row r="163" spans="1:17">
@@ -8914,13 +9592,13 @@
         <v>181451</v>
       </c>
       <c r="G163" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H163" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I163" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -8935,19 +9613,19 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <v>0.9490948475939968</v>
+        <v>0.949094847593997</v>
       </c>
       <c r="O163">
-        <v>0.9644670050761421</v>
+        <v>0.964467005076142</v>
       </c>
       <c r="P163">
-        <v>0.9523656776263032</v>
+        <v>0.952365677626303</v>
       </c>
       <c r="Q163">
         <v>0.975</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>42.26</v>
       </c>
@@ -8967,13 +9645,13 @@
         <v>1355036.8</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H164" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I164" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -9005,16 +9683,16 @@
         <v>4103117824</v>
       </c>
       <c r="F165">
-        <v>869700.1900000001</v>
+        <v>869700.19</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H165" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I165" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -9029,16 +9707,16 @@
         <v>1</v>
       </c>
       <c r="N165">
-        <v>0.9620000000000001</v>
+        <v>0.962</v>
       </c>
       <c r="O165">
-        <v>1.108120981185997</v>
+        <v>1.108120981186</v>
       </c>
       <c r="P165">
-        <v>0.9590464547677262</v>
+        <v>0.959046454767726</v>
       </c>
       <c r="Q165">
-        <v>1.135825840037861</v>
+        <v>1.13582584003786</v>
       </c>
     </row>
     <row r="166" spans="1:17">
@@ -9061,13 +9739,13 @@
         <v>773159.52</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H166" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I166" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J166">
         <v>1</v>
@@ -9082,16 +9760,16 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <v>1.020582120582121</v>
+        <v>1.02058212058212</v>
       </c>
       <c r="O166">
-        <v>0.9935525467440361</v>
+        <v>0.993552546744036</v>
       </c>
       <c r="P166">
-        <v>0.9906522200977268</v>
+        <v>0.990652220097727</v>
       </c>
       <c r="Q166">
-        <v>0.9895833333333334</v>
+        <v>0.989583333333333</v>
       </c>
     </row>
     <row r="167" spans="1:17">
@@ -9114,13 +9792,13 @@
         <v>784785.49</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H167" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I167" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -9135,16 +9813,16 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <v>0.9755551028722753</v>
+        <v>0.975555102872275</v>
       </c>
       <c r="O167">
-        <v>0.9850746268656715</v>
+        <v>0.985074626865671</v>
       </c>
       <c r="P167">
-        <v>1.024018871970834</v>
+        <v>1.02401887197083</v>
       </c>
       <c r="Q167">
-        <v>0.9753684210526316</v>
+        <v>0.975368421052632</v>
       </c>
     </row>
     <row r="168" spans="1:17">
@@ -9167,13 +9845,13 @@
         <v>783203.17</v>
       </c>
       <c r="G168" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H168" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I168" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J168">
         <v>1</v>
@@ -9188,13 +9866,13 @@
         <v>1</v>
       </c>
       <c r="N168">
-        <v>1.043015243265818</v>
+        <v>1.04301524326582</v>
       </c>
       <c r="O168">
-        <v>1.003513394817743</v>
+        <v>1.00351339481774</v>
       </c>
       <c r="P168">
-        <v>0.9876439790575917</v>
+        <v>0.987643979057592</v>
       </c>
       <c r="Q168">
         <v>1.03108137276063</v>
@@ -9220,13 +9898,13 @@
         <v>801578.78</v>
       </c>
       <c r="G169" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H169" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I169" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J169">
         <v>1</v>
@@ -9241,19 +9919,19 @@
         <v>1</v>
       </c>
       <c r="N169">
-        <v>1.021021021021021</v>
+        <v>1.02102102102102</v>
       </c>
       <c r="O169">
-        <v>1.040700218818381</v>
+        <v>1.04070021881838</v>
       </c>
       <c r="P169">
-        <v>1.024173027989822</v>
+        <v>1.02417302798982</v>
       </c>
       <c r="Q169">
-        <v>1.037052543437304</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17">
+        <v>1.0370525434373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170">
         <v>11</v>
       </c>
@@ -9273,13 +9951,13 @@
         <v>1385281.92</v>
       </c>
       <c r="G170" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H170" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I170" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -9314,13 +9992,13 @@
         <v>1097302.1</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H171" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I171" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J171">
         <v>1</v>
@@ -9335,16 +10013,16 @@
         <v>1</v>
       </c>
       <c r="N171">
-        <v>1.100078802206462</v>
+        <v>1.10007880220646</v>
       </c>
       <c r="O171">
-        <v>1.230256898192198</v>
+        <v>1.2302568981922</v>
       </c>
       <c r="P171">
-        <v>1.100078802206462</v>
+        <v>1.10007880220646</v>
       </c>
       <c r="Q171">
-        <v>1.181818181818182</v>
+        <v>1.18181818181818</v>
       </c>
     </row>
     <row r="172" spans="1:17">
@@ -9367,13 +10045,13 @@
         <v>1835456.96</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H172" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I172" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J172">
         <v>1</v>
@@ -9388,13 +10066,13 @@
         <v>1</v>
       </c>
       <c r="N172">
-        <v>1.100286532951289</v>
+        <v>1.10028653295129</v>
       </c>
       <c r="O172">
-        <v>1.082753286929621</v>
+        <v>1.08275328692962</v>
       </c>
       <c r="P172">
-        <v>1.100286532951289</v>
+        <v>1.10028653295129</v>
       </c>
       <c r="Q172">
         <v>1.1</v>
@@ -9420,13 +10098,13 @@
         <v>1461116.64</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H173" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I173" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -9441,16 +10119,16 @@
         <v>1</v>
       </c>
       <c r="N173">
-        <v>0.9960937500000001</v>
+        <v>0.99609375</v>
       </c>
       <c r="O173">
-        <v>0.9871428571428572</v>
+        <v>0.987142857142857</v>
       </c>
       <c r="P173">
-        <v>0.8997395833333334</v>
+        <v>0.899739583333333</v>
       </c>
       <c r="Q173">
-        <v>1.045454545454545</v>
+        <v>1.04545454545454</v>
       </c>
     </row>
     <row r="174" spans="1:17">
@@ -9473,13 +10151,13 @@
         <v>1583830.99</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H174" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I174" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -9494,16 +10172,16 @@
         <v>0</v>
       </c>
       <c r="N174">
-        <v>0.9477124183006536</v>
+        <v>0.947712418300654</v>
       </c>
       <c r="O174">
-        <v>0.9225759768451519</v>
+        <v>0.922575976845152</v>
       </c>
       <c r="P174">
-        <v>1.015918958031838</v>
+        <v>1.01591895803184</v>
       </c>
       <c r="Q174">
-        <v>0.8541806020066889</v>
+        <v>0.854180602006689</v>
       </c>
     </row>
     <row r="175" spans="1:17">
@@ -9526,13 +10204,13 @@
         <v>702882.05</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H175" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I175" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -9547,19 +10225,19 @@
         <v>1</v>
       </c>
       <c r="N175">
-        <v>0.9158620689655174</v>
+        <v>0.915862068965517</v>
       </c>
       <c r="O175">
-        <v>0.9913725490196079</v>
+        <v>0.991372549019608</v>
       </c>
       <c r="P175">
-        <v>0.9002849002849003</v>
+        <v>0.9002849002849</v>
       </c>
       <c r="Q175">
-        <v>1.029757243539546</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17">
+        <v>1.02975724353955</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176">
         <v>11.46</v>
       </c>
@@ -9579,13 +10257,13 @@
         <v>1123129.28</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H176" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I176" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -9620,13 +10298,13 @@
         <v>1138423.84</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H177" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I177" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -9641,16 +10319,16 @@
         <v>1</v>
       </c>
       <c r="N177">
-        <v>1.100389105058366</v>
+        <v>1.10038910505837</v>
       </c>
       <c r="O177">
-        <v>1.121707538601272</v>
+        <v>1.12170753860127</v>
       </c>
       <c r="P177">
-        <v>1.100389105058366</v>
+        <v>1.10038910505837</v>
       </c>
       <c r="Q177">
-        <v>1.102094240837696</v>
+        <v>1.1020942408377</v>
       </c>
     </row>
     <row r="178" spans="1:17">
@@ -9673,13 +10351,13 @@
         <v>981670.72</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H178" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I178" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -9694,16 +10372,16 @@
         <v>1</v>
       </c>
       <c r="N178">
-        <v>0.9752475247524752</v>
+        <v>0.975247524752475</v>
       </c>
       <c r="O178">
-        <v>1.030769230769231</v>
+        <v>1.03076923076923</v>
       </c>
       <c r="P178">
-        <v>0.9002828854314002</v>
+        <v>0.9002828854314</v>
       </c>
       <c r="Q178">
-        <v>1.068091844813935</v>
+        <v>1.06809184481393</v>
       </c>
     </row>
     <row r="179" spans="1:17">
@@ -9726,13 +10404,13 @@
         <v>1032322.05</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H179" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I179" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -9747,16 +10425,16 @@
         <v>0</v>
       </c>
       <c r="N179">
-        <v>0.9941986947063089</v>
+        <v>0.994198694706309</v>
       </c>
       <c r="O179">
-        <v>0.9402985074626866</v>
+        <v>0.940298507462687</v>
       </c>
       <c r="P179">
-        <v>1.021209740769835</v>
+        <v>1.02120974076984</v>
       </c>
       <c r="Q179">
-        <v>0.9125277983691623</v>
+        <v>0.912527798369162</v>
       </c>
     </row>
     <row r="180" spans="1:17">
@@ -9776,16 +10454,16 @@
         <v>1093441408</v>
       </c>
       <c r="F180">
-        <v>903465.4400000001</v>
+        <v>903465.44</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H180" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I180" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -9800,16 +10478,16 @@
         <v>0</v>
       </c>
       <c r="N180">
-        <v>0.9263311451495259</v>
+        <v>0.926331145149526</v>
       </c>
       <c r="O180">
-        <v>0.9774436090225564</v>
+        <v>0.977443609022556</v>
       </c>
       <c r="P180">
-        <v>0.9638461538461539</v>
+        <v>0.963846153846154</v>
       </c>
       <c r="Q180">
-        <v>0.9991876523151909</v>
+        <v>0.999187652315191</v>
       </c>
     </row>
     <row r="181" spans="1:17">
@@ -9832,13 +10510,13 @@
         <v>876008</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H181" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I181" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -9853,19 +10531,19 @@
         <v>1</v>
       </c>
       <c r="N181">
-        <v>1.036220472440945</v>
+        <v>1.03622047244094</v>
       </c>
       <c r="O181">
-        <v>1.058119658119658</v>
+        <v>1.05811965811966</v>
       </c>
       <c r="P181">
-        <v>1.050279329608939</v>
+        <v>1.05027932960894</v>
       </c>
       <c r="Q181">
-        <v>1.020325203252032</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17">
+        <v>1.02032520325203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182">
         <v>50</v>
       </c>
@@ -9885,13 +10563,13 @@
         <v>405871.76</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H182" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I182" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -9926,13 +10604,13 @@
         <v>293404.24</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H183" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I183" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -9947,13 +10625,13 @@
         <v>1</v>
       </c>
       <c r="N183">
-        <v>1.006549797726835</v>
+        <v>1.00654979772683</v>
       </c>
       <c r="O183">
-        <v>1.010305112143867</v>
+        <v>1.01030511214387</v>
       </c>
       <c r="P183">
-        <v>1.016525673814676</v>
+        <v>1.01652567381468</v>
       </c>
       <c r="Q183">
         <v>1.0398</v>
@@ -9979,13 +10657,13 @@
         <v>691383.27</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H184" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I184" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -10000,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="N184">
-        <v>1.144497607655502</v>
+        <v>1.1444976076555</v>
       </c>
       <c r="O184">
         <v>1.046</v>
@@ -10009,7 +10687,7 @@
         <v>1.13218502032127</v>
       </c>
       <c r="Q184">
-        <v>1.005962685131756</v>
+        <v>1.00596268513176</v>
       </c>
     </row>
     <row r="185" spans="1:17">
@@ -10032,13 +10710,13 @@
         <v>470796.48</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H185" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I185" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -10053,16 +10731,16 @@
         <v>1</v>
       </c>
       <c r="N185">
-        <v>1.024749163879599</v>
+        <v>1.0247491638796</v>
       </c>
       <c r="O185">
-        <v>1.101338432122371</v>
+        <v>1.10133843212237</v>
       </c>
       <c r="P185">
-        <v>0.9974358974358974</v>
+        <v>0.997435897435897</v>
       </c>
       <c r="Q185">
-        <v>1.136328871892925</v>
+        <v>1.13632887189292</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -10085,13 +10763,13 @@
         <v>348663.85</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H186" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I186" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -10106,16 +10784,16 @@
         <v>0</v>
       </c>
       <c r="N186">
-        <v>0.9685052219321149</v>
+        <v>0.968505221932115</v>
       </c>
       <c r="O186">
         <v>0.9875</v>
       </c>
       <c r="P186">
-        <v>0.9845758354755785</v>
+        <v>0.984575835475578</v>
       </c>
       <c r="Q186">
-        <v>0.9865387851253576</v>
+        <v>0.986538785125358</v>
       </c>
     </row>
     <row r="187" spans="1:17">
@@ -10138,13 +10816,13 @@
         <v>366857.91</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H187" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I187" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -10159,19 +10837,19 @@
         <v>0</v>
       </c>
       <c r="N187">
-        <v>0.9349620893007582</v>
+        <v>0.934962089300758</v>
       </c>
       <c r="O187">
         <v>0.930028129395218</v>
       </c>
       <c r="P187">
-        <v>0.9265448215839861</v>
+        <v>0.926544821583986</v>
       </c>
       <c r="Q187">
-        <v>0.9397919154016715</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17">
+        <v>0.939791915401672</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188">
         <v>84</v>
       </c>
@@ -10191,13 +10869,13 @@
         <v>302257.24</v>
       </c>
       <c r="G188" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H188" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I188" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -10214,7 +10892,7 @@
     </row>
     <row r="189" spans="1:17">
       <c r="A189">
-        <v>87.01000000000001</v>
+        <v>87.01</v>
       </c>
       <c r="B189">
         <v>88.44</v>
@@ -10232,13 +10910,13 @@
         <v>135726.53</v>
       </c>
       <c r="G189" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H189" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I189" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -10253,16 +10931,16 @@
         <v>1</v>
       </c>
       <c r="N189">
-        <v>0.9718681318681318</v>
+        <v>0.971868131868132</v>
       </c>
       <c r="O189">
-        <v>1.029730380356283</v>
+        <v>1.02973038035628</v>
       </c>
       <c r="P189">
-        <v>0.9968203497615262</v>
+        <v>0.996820349761526</v>
       </c>
       <c r="Q189">
-        <v>1.035833333333333</v>
+        <v>1.03583333333333</v>
       </c>
     </row>
     <row r="190" spans="1:17">
@@ -10270,10 +10948,10 @@
         <v>88.37</v>
       </c>
       <c r="B190">
-        <v>89.01000000000001</v>
+        <v>89.01</v>
       </c>
       <c r="C190">
-        <v>84.46000000000001</v>
+        <v>84.46</v>
       </c>
       <c r="D190">
         <v>84.5</v>
@@ -10285,13 +10963,13 @@
         <v>160057.09</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H190" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I190" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -10306,30 +10984,30 @@
         <v>1</v>
       </c>
       <c r="N190">
-        <v>1.006445047489824</v>
+        <v>1.00644504748982</v>
       </c>
       <c r="O190">
-        <v>0.9872589129164233</v>
+        <v>0.987258912916423</v>
       </c>
       <c r="P190">
-        <v>0.9626338573706995</v>
+        <v>0.9626338573707</v>
       </c>
       <c r="Q190">
-        <v>1.015630387311803</v>
+        <v>1.0156303873118</v>
       </c>
     </row>
     <row r="191" spans="1:17">
       <c r="A191">
-        <v>84.04000000000001</v>
+        <v>84.04</v>
       </c>
       <c r="B191">
         <v>87.33</v>
       </c>
       <c r="C191">
-        <v>83.76000000000001</v>
+        <v>83.76</v>
       </c>
       <c r="D191">
-        <v>85.82000000000001</v>
+        <v>85.82</v>
       </c>
       <c r="E191">
         <v>1066186432</v>
@@ -10338,13 +11016,13 @@
         <v>124792.14</v>
       </c>
       <c r="G191" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H191" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I191" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -10359,21 +11037,21 @@
         <v>0</v>
       </c>
       <c r="N191">
-        <v>0.9811257162116616</v>
+        <v>0.981125716211662</v>
       </c>
       <c r="O191">
-        <v>0.9917120530428605</v>
+        <v>0.99171205304286</v>
       </c>
       <c r="P191">
-        <v>1.015621301775148</v>
+        <v>1.01562130177515</v>
       </c>
       <c r="Q191">
-        <v>0.9510014710874731</v>
+        <v>0.951001471087473</v>
       </c>
     </row>
     <row r="192" spans="1:17">
       <c r="A192">
-        <v>83.04000000000001</v>
+        <v>83.04</v>
       </c>
       <c r="B192">
         <v>85.33</v>
@@ -10391,13 +11069,13 @@
         <v>120405.03</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H192" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I192" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -10412,16 +11090,16 @@
         <v>0</v>
       </c>
       <c r="N192">
-        <v>0.9770983625329211</v>
+        <v>0.977098362532921</v>
       </c>
       <c r="O192">
-        <v>0.9866284622731614</v>
+        <v>0.986628462273161</v>
       </c>
       <c r="P192">
-        <v>0.9778606385457934</v>
+        <v>0.977860638545793</v>
       </c>
       <c r="Q192">
-        <v>0.9881009043312708</v>
+        <v>0.988100904331271</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -10435,7 +11113,7 @@
         <v>81.2</v>
       </c>
       <c r="D193">
-        <v>82.60000000000001</v>
+        <v>82.6</v>
       </c>
       <c r="E193">
         <v>1343721856</v>
@@ -10444,13 +11122,13 @@
         <v>158850.84</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H193" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I193" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -10468,16 +11146,1452 @@
         <v>1.03808742529005</v>
       </c>
       <c r="O193">
-        <v>0.9825750242013553</v>
+        <v>0.982575024201355</v>
       </c>
       <c r="P193">
-        <v>0.9842707340324119</v>
+        <v>0.984270734032412</v>
       </c>
       <c r="Q193">
-        <v>1.045279383429672</v>
+        <v>1.04527938342967</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="11" width="13.625" customWidth="1"/>
+    <col min="14" max="17" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2">SUMPRODUCT((Sheet1!G2:G193=Sheet2!A2)*(Sheet1!I2:I193=Sheet2!C2)*(Sheet1!$J2:$J193=1))</f>
+        <v>5</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">SUMPRODUCT((Sheet1!G2:G193=Sheet2!A2)*(Sheet1!I2:I193=Sheet2!C2)*(Sheet1!K2:K193=1))</f>
+        <v>5</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">SUMPRODUCT((Sheet1!G2:G193=Sheet2!A2)*(Sheet1!I2:I193=Sheet2!C2)*(Sheet1!L2:L193=1))</f>
+        <v>5</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">SUMPRODUCT((Sheet1!G2:G193=Sheet2!A2)*(Sheet1!I2:I193=Sheet2!C2)*(Sheet1!M2:M193=1))</f>
+        <v>5</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">SUMPRODUCT((Sheet1!G2:G193=Sheet2!A2)*(Sheet1!I2:I193=Sheet2!C2)*(Sheet1!N2:N193&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">SUMPRODUCT((Sheet1!G2:G193=Sheet2!A2)*(Sheet1!I2:I193=Sheet2!C2)*(Sheet1!O2:O193&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">SUMPRODUCT((Sheet1!G2:G193=Sheet2!A2)*(Sheet1!I2:I193=Sheet2!C2)*(Sheet1!P2:P193&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">SUMPRODUCT((Sheet1!G2:G193=Sheet2!A2)*(Sheet1!I2:I193=Sheet2!C2)*(Sheet1!Q2:Q193&gt;1))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3">SUMPRODUCT((Sheet1!G3:G194=Sheet2!A3)*(Sheet1!I3:I194=Sheet2!C3)*(Sheet1!$J3:$J194=1))</f>
+        <v>5</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">SUMPRODUCT((Sheet1!G3:G194=Sheet2!A3)*(Sheet1!I3:I194=Sheet2!C3)*(Sheet1!K3:K194=1))</f>
+        <v>5</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">SUMPRODUCT((Sheet1!G3:G194=Sheet2!A3)*(Sheet1!I3:I194=Sheet2!C3)*(Sheet1!L3:L194=1))</f>
+        <v>5</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">SUMPRODUCT((Sheet1!G3:G194=Sheet2!A3)*(Sheet1!I3:I194=Sheet2!C3)*(Sheet1!M3:M194=1))</f>
+        <v>5</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">SUMPRODUCT((Sheet1!G3:G194=Sheet2!A3)*(Sheet1!I3:I194=Sheet2!C3)*(Sheet1!N3:N194&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">SUMPRODUCT((Sheet1!G3:G194=Sheet2!A3)*(Sheet1!I3:I194=Sheet2!C3)*(Sheet1!O3:O194&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">SUMPRODUCT((Sheet1!G3:G194=Sheet2!A3)*(Sheet1!I3:I194=Sheet2!C3)*(Sheet1!P3:P194&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3">SUMPRODUCT((Sheet1!G3:G194=Sheet2!A3)*(Sheet1!I3:I194=Sheet2!C3)*(Sheet1!Q3:Q194&gt;1))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">SUMPRODUCT((Sheet1!G4:G195=Sheet2!A4)*(Sheet1!I4:I195=Sheet2!C4)*(Sheet1!$J4:$J195=1))</f>
+        <v>4</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">SUMPRODUCT((Sheet1!G4:G195=Sheet2!A4)*(Sheet1!I4:I195=Sheet2!C4)*(Sheet1!K4:K195=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">SUMPRODUCT((Sheet1!G4:G195=Sheet2!A4)*(Sheet1!I4:I195=Sheet2!C4)*(Sheet1!L4:L195=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">SUMPRODUCT((Sheet1!G4:G195=Sheet2!A4)*(Sheet1!I4:I195=Sheet2!C4)*(Sheet1!M4:M195=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">SUMPRODUCT((Sheet1!G4:G195=Sheet2!A4)*(Sheet1!I4:I195=Sheet2!C4)*(Sheet1!N4:N195&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">SUMPRODUCT((Sheet1!G4:G195=Sheet2!A4)*(Sheet1!I4:I195=Sheet2!C4)*(Sheet1!O4:O195&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">SUMPRODUCT((Sheet1!G4:G195=Sheet2!A4)*(Sheet1!I4:I195=Sheet2!C4)*(Sheet1!P4:P195&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" ref="K4">SUMPRODUCT((Sheet1!G4:G195=Sheet2!A4)*(Sheet1!I4:I195=Sheet2!C4)*(Sheet1!Q4:Q195&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">SUMPRODUCT((Sheet1!G5:G196=Sheet2!A5)*(Sheet1!I5:I196=Sheet2!C5)*(Sheet1!$J5:$J196=1))</f>
+        <v>5</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">SUMPRODUCT((Sheet1!G5:G196=Sheet2!A5)*(Sheet1!I5:I196=Sheet2!C5)*(Sheet1!K5:K196=1))</f>
+        <v>5</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">SUMPRODUCT((Sheet1!G5:G196=Sheet2!A5)*(Sheet1!I5:I196=Sheet2!C5)*(Sheet1!L5:L196=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">SUMPRODUCT((Sheet1!G5:G196=Sheet2!A5)*(Sheet1!I5:I196=Sheet2!C5)*(Sheet1!M5:M196=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">SUMPRODUCT((Sheet1!G5:G196=Sheet2!A5)*(Sheet1!I5:I196=Sheet2!C5)*(Sheet1!N5:N196&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">SUMPRODUCT((Sheet1!G5:G196=Sheet2!A5)*(Sheet1!I5:I196=Sheet2!C5)*(Sheet1!O5:O196&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">SUMPRODUCT((Sheet1!G5:G196=Sheet2!A5)*(Sheet1!I5:I196=Sheet2!C5)*(Sheet1!P5:P196&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K5" cm="1">
+        <f t="array" ref="K5">SUMPRODUCT((Sheet1!G5:G196=Sheet2!A5)*(Sheet1!I5:I196=Sheet2!C5)*(Sheet1!Q5:Q196&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">SUMPRODUCT((Sheet1!G6:G197=Sheet2!A6)*(Sheet1!I6:I197=Sheet2!C6)*(Sheet1!$J6:$J197=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">SUMPRODUCT((Sheet1!G6:G197=Sheet2!A6)*(Sheet1!I6:I197=Sheet2!C6)*(Sheet1!K6:K197=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">SUMPRODUCT((Sheet1!G6:G197=Sheet2!A6)*(Sheet1!I6:I197=Sheet2!C6)*(Sheet1!L6:L197=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">SUMPRODUCT((Sheet1!G6:G197=Sheet2!A6)*(Sheet1!I6:I197=Sheet2!C6)*(Sheet1!M6:M197=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">SUMPRODUCT((Sheet1!G6:G197=Sheet2!A6)*(Sheet1!I6:I197=Sheet2!C6)*(Sheet1!N6:N197&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">SUMPRODUCT((Sheet1!G6:G197=Sheet2!A6)*(Sheet1!I6:I197=Sheet2!C6)*(Sheet1!O6:O197&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">SUMPRODUCT((Sheet1!G6:G197=Sheet2!A6)*(Sheet1!I6:I197=Sheet2!C6)*(Sheet1!P6:P197&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">SUMPRODUCT((Sheet1!G6:G197=Sheet2!A6)*(Sheet1!I6:I197=Sheet2!C6)*(Sheet1!Q6:Q197&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">SUMPRODUCT((Sheet1!G7:G198=Sheet2!A7)*(Sheet1!I7:I198=Sheet2!C7)*(Sheet1!$J7:$J198=1))</f>
+        <v>4</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">SUMPRODUCT((Sheet1!G7:G198=Sheet2!A7)*(Sheet1!I7:I198=Sheet2!C7)*(Sheet1!K7:K198=1))</f>
+        <v>4</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">SUMPRODUCT((Sheet1!G7:G198=Sheet2!A7)*(Sheet1!I7:I198=Sheet2!C7)*(Sheet1!L7:L198=1))</f>
+        <v>2</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">SUMPRODUCT((Sheet1!G7:G198=Sheet2!A7)*(Sheet1!I7:I198=Sheet2!C7)*(Sheet1!M7:M198=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">SUMPRODUCT((Sheet1!G7:G198=Sheet2!A7)*(Sheet1!I7:I198=Sheet2!C7)*(Sheet1!N7:N198&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">SUMPRODUCT((Sheet1!G7:G198=Sheet2!A7)*(Sheet1!I7:I198=Sheet2!C7)*(Sheet1!O7:O198&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">SUMPRODUCT((Sheet1!G7:G198=Sheet2!A7)*(Sheet1!I7:I198=Sheet2!C7)*(Sheet1!P7:P198&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">SUMPRODUCT((Sheet1!G7:G198=Sheet2!A7)*(Sheet1!I7:I198=Sheet2!C7)*(Sheet1!Q7:Q198&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">SUMPRODUCT((Sheet1!G8:G199=Sheet2!A8)*(Sheet1!I8:I199=Sheet2!C8)*(Sheet1!$J8:$J199=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">SUMPRODUCT((Sheet1!G8:G199=Sheet2!A8)*(Sheet1!I8:I199=Sheet2!C8)*(Sheet1!K8:K199=1))</f>
+        <v>5</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">SUMPRODUCT((Sheet1!G8:G199=Sheet2!A8)*(Sheet1!I8:I199=Sheet2!C8)*(Sheet1!L8:L199=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">SUMPRODUCT((Sheet1!G8:G199=Sheet2!A8)*(Sheet1!I8:I199=Sheet2!C8)*(Sheet1!M8:M199=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">SUMPRODUCT((Sheet1!G8:G199=Sheet2!A8)*(Sheet1!I8:I199=Sheet2!C8)*(Sheet1!N8:N199&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">SUMPRODUCT((Sheet1!G8:G199=Sheet2!A8)*(Sheet1!I8:I199=Sheet2!C8)*(Sheet1!O8:O199&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">SUMPRODUCT((Sheet1!G8:G199=Sheet2!A8)*(Sheet1!I8:I199=Sheet2!C8)*(Sheet1!P8:P199&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">SUMPRODUCT((Sheet1!G8:G199=Sheet2!A8)*(Sheet1!I8:I199=Sheet2!C8)*(Sheet1!Q8:Q199&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">SUMPRODUCT((Sheet1!G9:G200=Sheet2!A9)*(Sheet1!I9:I200=Sheet2!C9)*(Sheet1!$J9:$J200=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9">SUMPRODUCT((Sheet1!G9:G200=Sheet2!A9)*(Sheet1!I9:I200=Sheet2!C9)*(Sheet1!K9:K200=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">SUMPRODUCT((Sheet1!G9:G200=Sheet2!A9)*(Sheet1!I9:I200=Sheet2!C9)*(Sheet1!L9:L200=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">SUMPRODUCT((Sheet1!G9:G200=Sheet2!A9)*(Sheet1!I9:I200=Sheet2!C9)*(Sheet1!M9:M200=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">SUMPRODUCT((Sheet1!G9:G200=Sheet2!A9)*(Sheet1!I9:I200=Sheet2!C9)*(Sheet1!N9:N200&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">SUMPRODUCT((Sheet1!G9:G200=Sheet2!A9)*(Sheet1!I9:I200=Sheet2!C9)*(Sheet1!O9:O200&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">SUMPRODUCT((Sheet1!G9:G200=Sheet2!A9)*(Sheet1!I9:I200=Sheet2!C9)*(Sheet1!P9:P200&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">SUMPRODUCT((Sheet1!G9:G200=Sheet2!A9)*(Sheet1!I9:I200=Sheet2!C9)*(Sheet1!Q9:Q200&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">SUMPRODUCT((Sheet1!G10:G201=Sheet2!A10)*(Sheet1!I10:I201=Sheet2!C10)*(Sheet1!$J10:$J201=1))</f>
+        <v>4</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">SUMPRODUCT((Sheet1!G10:G201=Sheet2!A10)*(Sheet1!I10:I201=Sheet2!C10)*(Sheet1!K10:K201=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">SUMPRODUCT((Sheet1!G10:G201=Sheet2!A10)*(Sheet1!I10:I201=Sheet2!C10)*(Sheet1!L10:L201=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">SUMPRODUCT((Sheet1!G10:G201=Sheet2!A10)*(Sheet1!I10:I201=Sheet2!C10)*(Sheet1!M10:M201=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">SUMPRODUCT((Sheet1!G10:G201=Sheet2!A10)*(Sheet1!I10:I201=Sheet2!C10)*(Sheet1!N10:N201&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">SUMPRODUCT((Sheet1!G10:G201=Sheet2!A10)*(Sheet1!I10:I201=Sheet2!C10)*(Sheet1!O10:O201&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">SUMPRODUCT((Sheet1!G10:G201=Sheet2!A10)*(Sheet1!I10:I201=Sheet2!C10)*(Sheet1!P10:P201&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">SUMPRODUCT((Sheet1!G10:G201=Sheet2!A10)*(Sheet1!I10:I201=Sheet2!C10)*(Sheet1!Q10:Q201&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">SUMPRODUCT((Sheet1!G11:G202=Sheet2!A11)*(Sheet1!I11:I202=Sheet2!C11)*(Sheet1!$J11:$J202=1))</f>
+        <v>5</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">SUMPRODUCT((Sheet1!G11:G202=Sheet2!A11)*(Sheet1!I11:I202=Sheet2!C11)*(Sheet1!K11:K202=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">SUMPRODUCT((Sheet1!G11:G202=Sheet2!A11)*(Sheet1!I11:I202=Sheet2!C11)*(Sheet1!L11:L202=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">SUMPRODUCT((Sheet1!G11:G202=Sheet2!A11)*(Sheet1!I11:I202=Sheet2!C11)*(Sheet1!M11:M202=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">SUMPRODUCT((Sheet1!G11:G202=Sheet2!A11)*(Sheet1!I11:I202=Sheet2!C11)*(Sheet1!N11:N202&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">SUMPRODUCT((Sheet1!G11:G202=Sheet2!A11)*(Sheet1!I11:I202=Sheet2!C11)*(Sheet1!O11:O202&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">SUMPRODUCT((Sheet1!G11:G202=Sheet2!A11)*(Sheet1!I11:I202=Sheet2!C11)*(Sheet1!P11:P202&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">SUMPRODUCT((Sheet1!G11:G202=Sheet2!A11)*(Sheet1!I11:I202=Sheet2!C11)*(Sheet1!Q11:Q202&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">SUMPRODUCT((Sheet1!G12:G203=Sheet2!A12)*(Sheet1!I12:I203=Sheet2!C12)*(Sheet1!$J12:$J203=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">SUMPRODUCT((Sheet1!G12:G203=Sheet2!A12)*(Sheet1!I12:I203=Sheet2!C12)*(Sheet1!K12:K203=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">SUMPRODUCT((Sheet1!G12:G203=Sheet2!A12)*(Sheet1!I12:I203=Sheet2!C12)*(Sheet1!L12:L203=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">SUMPRODUCT((Sheet1!G12:G203=Sheet2!A12)*(Sheet1!I12:I203=Sheet2!C12)*(Sheet1!M12:M203=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">SUMPRODUCT((Sheet1!G12:G203=Sheet2!A12)*(Sheet1!I12:I203=Sheet2!C12)*(Sheet1!N12:N203&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">SUMPRODUCT((Sheet1!G12:G203=Sheet2!A12)*(Sheet1!I12:I203=Sheet2!C12)*(Sheet1!O12:O203&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">SUMPRODUCT((Sheet1!G12:G203=Sheet2!A12)*(Sheet1!I12:I203=Sheet2!C12)*(Sheet1!P12:P203&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">SUMPRODUCT((Sheet1!G12:G203=Sheet2!A12)*(Sheet1!I12:I203=Sheet2!C12)*(Sheet1!Q12:Q203&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">SUMPRODUCT((Sheet1!G13:G204=Sheet2!A13)*(Sheet1!I13:I204=Sheet2!C13)*(Sheet1!$J13:$J204=1))</f>
+        <v>5</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">SUMPRODUCT((Sheet1!G13:G204=Sheet2!A13)*(Sheet1!I13:I204=Sheet2!C13)*(Sheet1!K13:K204=1))</f>
+        <v>5</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">SUMPRODUCT((Sheet1!G13:G204=Sheet2!A13)*(Sheet1!I13:I204=Sheet2!C13)*(Sheet1!L13:L204=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">SUMPRODUCT((Sheet1!G13:G204=Sheet2!A13)*(Sheet1!I13:I204=Sheet2!C13)*(Sheet1!M13:M204=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">SUMPRODUCT((Sheet1!G13:G204=Sheet2!A13)*(Sheet1!I13:I204=Sheet2!C13)*(Sheet1!N13:N204&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">SUMPRODUCT((Sheet1!G13:G204=Sheet2!A13)*(Sheet1!I13:I204=Sheet2!C13)*(Sheet1!O13:O204&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">SUMPRODUCT((Sheet1!G13:G204=Sheet2!A13)*(Sheet1!I13:I204=Sheet2!C13)*(Sheet1!P13:P204&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">SUMPRODUCT((Sheet1!G13:G204=Sheet2!A13)*(Sheet1!I13:I204=Sheet2!C13)*(Sheet1!Q13:Q204&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">SUMPRODUCT((Sheet1!G14:G205=Sheet2!A14)*(Sheet1!I14:I205=Sheet2!C14)*(Sheet1!$J14:$J205=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">SUMPRODUCT((Sheet1!G14:G205=Sheet2!A14)*(Sheet1!I14:I205=Sheet2!C14)*(Sheet1!K14:K205=1))</f>
+        <v>5</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">SUMPRODUCT((Sheet1!G14:G205=Sheet2!A14)*(Sheet1!I14:I205=Sheet2!C14)*(Sheet1!L14:L205=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">SUMPRODUCT((Sheet1!G14:G205=Sheet2!A14)*(Sheet1!I14:I205=Sheet2!C14)*(Sheet1!M14:M205=1))</f>
+        <v>5</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">SUMPRODUCT((Sheet1!G14:G205=Sheet2!A14)*(Sheet1!I14:I205=Sheet2!C14)*(Sheet1!N14:N205&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">SUMPRODUCT((Sheet1!G14:G205=Sheet2!A14)*(Sheet1!I14:I205=Sheet2!C14)*(Sheet1!O14:O205&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">SUMPRODUCT((Sheet1!G14:G205=Sheet2!A14)*(Sheet1!I14:I205=Sheet2!C14)*(Sheet1!P14:P205&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">SUMPRODUCT((Sheet1!G14:G205=Sheet2!A14)*(Sheet1!I14:I205=Sheet2!C14)*(Sheet1!Q14:Q205&gt;1))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">SUMPRODUCT((Sheet1!G15:G206=Sheet2!A15)*(Sheet1!I15:I206=Sheet2!C15)*(Sheet1!$J15:$J206=1))</f>
+        <v>4</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">SUMPRODUCT((Sheet1!G15:G206=Sheet2!A15)*(Sheet1!I15:I206=Sheet2!C15)*(Sheet1!K15:K206=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">SUMPRODUCT((Sheet1!G15:G206=Sheet2!A15)*(Sheet1!I15:I206=Sheet2!C15)*(Sheet1!L15:L206=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">SUMPRODUCT((Sheet1!G15:G206=Sheet2!A15)*(Sheet1!I15:I206=Sheet2!C15)*(Sheet1!M15:M206=1))</f>
+        <v>2</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">SUMPRODUCT((Sheet1!G15:G206=Sheet2!A15)*(Sheet1!I15:I206=Sheet2!C15)*(Sheet1!N15:N206&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">SUMPRODUCT((Sheet1!G15:G206=Sheet2!A15)*(Sheet1!I15:I206=Sheet2!C15)*(Sheet1!O15:O206&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">SUMPRODUCT((Sheet1!G15:G206=Sheet2!A15)*(Sheet1!I15:I206=Sheet2!C15)*(Sheet1!P15:P206&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">SUMPRODUCT((Sheet1!G15:G206=Sheet2!A15)*(Sheet1!I15:I206=Sheet2!C15)*(Sheet1!Q15:Q206&gt;1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">SUMPRODUCT((Sheet1!G16:G207=Sheet2!A16)*(Sheet1!I16:I207=Sheet2!C16)*(Sheet1!$J16:$J207=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">SUMPRODUCT((Sheet1!G16:G207=Sheet2!A16)*(Sheet1!I16:I207=Sheet2!C16)*(Sheet1!K16:K207=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">SUMPRODUCT((Sheet1!G16:G207=Sheet2!A16)*(Sheet1!I16:I207=Sheet2!C16)*(Sheet1!L16:L207=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">SUMPRODUCT((Sheet1!G16:G207=Sheet2!A16)*(Sheet1!I16:I207=Sheet2!C16)*(Sheet1!M16:M207=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">SUMPRODUCT((Sheet1!G16:G207=Sheet2!A16)*(Sheet1!I16:I207=Sheet2!C16)*(Sheet1!N16:N207&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">SUMPRODUCT((Sheet1!G16:G207=Sheet2!A16)*(Sheet1!I16:I207=Sheet2!C16)*(Sheet1!O16:O207&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">SUMPRODUCT((Sheet1!G16:G207=Sheet2!A16)*(Sheet1!I16:I207=Sheet2!C16)*(Sheet1!P16:P207&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">SUMPRODUCT((Sheet1!G16:G207=Sheet2!A16)*(Sheet1!I16:I207=Sheet2!C16)*(Sheet1!Q16:Q207&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">SUMPRODUCT((Sheet1!G17:G208=Sheet2!A17)*(Sheet1!I17:I208=Sheet2!C17)*(Sheet1!$J17:$J208=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17">SUMPRODUCT((Sheet1!G17:G208=Sheet2!A17)*(Sheet1!I17:I208=Sheet2!C17)*(Sheet1!K17:K208=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">SUMPRODUCT((Sheet1!G17:G208=Sheet2!A17)*(Sheet1!I17:I208=Sheet2!C17)*(Sheet1!L17:L208=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">SUMPRODUCT((Sheet1!G17:G208=Sheet2!A17)*(Sheet1!I17:I208=Sheet2!C17)*(Sheet1!M17:M208=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">SUMPRODUCT((Sheet1!G17:G208=Sheet2!A17)*(Sheet1!I17:I208=Sheet2!C17)*(Sheet1!N17:N208&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">SUMPRODUCT((Sheet1!G17:G208=Sheet2!A17)*(Sheet1!I17:I208=Sheet2!C17)*(Sheet1!O17:O208&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">SUMPRODUCT((Sheet1!G17:G208=Sheet2!A17)*(Sheet1!I17:I208=Sheet2!C17)*(Sheet1!P17:P208&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">SUMPRODUCT((Sheet1!G17:G208=Sheet2!A17)*(Sheet1!I17:I208=Sheet2!C17)*(Sheet1!Q17:Q208&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">SUMPRODUCT((Sheet1!G18:G209=Sheet2!A18)*(Sheet1!I18:I209=Sheet2!C18)*(Sheet1!$J18:$J209=1))</f>
+        <v>4</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18">SUMPRODUCT((Sheet1!G18:G209=Sheet2!A18)*(Sheet1!I18:I209=Sheet2!C18)*(Sheet1!K18:K209=1))</f>
+        <v>2</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">SUMPRODUCT((Sheet1!G18:G209=Sheet2!A18)*(Sheet1!I18:I209=Sheet2!C18)*(Sheet1!L18:L209=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">SUMPRODUCT((Sheet1!G18:G209=Sheet2!A18)*(Sheet1!I18:I209=Sheet2!C18)*(Sheet1!M18:M209=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">SUMPRODUCT((Sheet1!G18:G209=Sheet2!A18)*(Sheet1!I18:I209=Sheet2!C18)*(Sheet1!N18:N209&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">SUMPRODUCT((Sheet1!G18:G209=Sheet2!A18)*(Sheet1!I18:I209=Sheet2!C18)*(Sheet1!O18:O209&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">SUMPRODUCT((Sheet1!G18:G209=Sheet2!A18)*(Sheet1!I18:I209=Sheet2!C18)*(Sheet1!P18:P209&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">SUMPRODUCT((Sheet1!G18:G209=Sheet2!A18)*(Sheet1!I18:I209=Sheet2!C18)*(Sheet1!Q18:Q209&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">SUMPRODUCT((Sheet1!G19:G210=Sheet2!A19)*(Sheet1!I19:I210=Sheet2!C19)*(Sheet1!$J19:$J210=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">SUMPRODUCT((Sheet1!G19:G210=Sheet2!A19)*(Sheet1!I19:I210=Sheet2!C19)*(Sheet1!K19:K210=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">SUMPRODUCT((Sheet1!G19:G210=Sheet2!A19)*(Sheet1!I19:I210=Sheet2!C19)*(Sheet1!L19:L210=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">SUMPRODUCT((Sheet1!G19:G210=Sheet2!A19)*(Sheet1!I19:I210=Sheet2!C19)*(Sheet1!M19:M210=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">SUMPRODUCT((Sheet1!G19:G210=Sheet2!A19)*(Sheet1!I19:I210=Sheet2!C19)*(Sheet1!N19:N210&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">SUMPRODUCT((Sheet1!G19:G210=Sheet2!A19)*(Sheet1!I19:I210=Sheet2!C19)*(Sheet1!O19:O210&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">SUMPRODUCT((Sheet1!G19:G210=Sheet2!A19)*(Sheet1!I19:I210=Sheet2!C19)*(Sheet1!P19:P210&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">SUMPRODUCT((Sheet1!G19:G210=Sheet2!A19)*(Sheet1!I19:I210=Sheet2!C19)*(Sheet1!Q19:Q210&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">SUMPRODUCT((Sheet1!G20:G211=Sheet2!A20)*(Sheet1!I20:I211=Sheet2!C20)*(Sheet1!$J20:$J211=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" ref="E20">SUMPRODUCT((Sheet1!G20:G211=Sheet2!A20)*(Sheet1!I20:I211=Sheet2!C20)*(Sheet1!K20:K211=1))</f>
+        <v>4</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">SUMPRODUCT((Sheet1!G20:G211=Sheet2!A20)*(Sheet1!I20:I211=Sheet2!C20)*(Sheet1!L20:L211=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">SUMPRODUCT((Sheet1!G20:G211=Sheet2!A20)*(Sheet1!I20:I211=Sheet2!C20)*(Sheet1!M20:M211=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">SUMPRODUCT((Sheet1!G20:G211=Sheet2!A20)*(Sheet1!I20:I211=Sheet2!C20)*(Sheet1!N20:N211&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">SUMPRODUCT((Sheet1!G20:G211=Sheet2!A20)*(Sheet1!I20:I211=Sheet2!C20)*(Sheet1!O20:O211&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">SUMPRODUCT((Sheet1!G20:G211=Sheet2!A20)*(Sheet1!I20:I211=Sheet2!C20)*(Sheet1!P20:P211&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">SUMPRODUCT((Sheet1!G20:G211=Sheet2!A20)*(Sheet1!I20:I211=Sheet2!C20)*(Sheet1!Q20:Q211&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">SUMPRODUCT((Sheet1!G21:G212=Sheet2!A21)*(Sheet1!I21:I212=Sheet2!C21)*(Sheet1!$J21:$J212=1))</f>
+        <v>2</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21">SUMPRODUCT((Sheet1!G21:G212=Sheet2!A21)*(Sheet1!I21:I212=Sheet2!C21)*(Sheet1!K21:K212=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">SUMPRODUCT((Sheet1!G21:G212=Sheet2!A21)*(Sheet1!I21:I212=Sheet2!C21)*(Sheet1!L21:L212=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">SUMPRODUCT((Sheet1!G21:G212=Sheet2!A21)*(Sheet1!I21:I212=Sheet2!C21)*(Sheet1!M21:M212=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">SUMPRODUCT((Sheet1!G21:G212=Sheet2!A21)*(Sheet1!I21:I212=Sheet2!C21)*(Sheet1!N21:N212&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">SUMPRODUCT((Sheet1!G21:G212=Sheet2!A21)*(Sheet1!I21:I212=Sheet2!C21)*(Sheet1!O21:O212&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">SUMPRODUCT((Sheet1!G21:G212=Sheet2!A21)*(Sheet1!I21:I212=Sheet2!C21)*(Sheet1!P21:P212&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">SUMPRODUCT((Sheet1!G21:G212=Sheet2!A21)*(Sheet1!I21:I212=Sheet2!C21)*(Sheet1!Q21:Q212&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">SUMPRODUCT((Sheet1!G22:G213=Sheet2!A22)*(Sheet1!I22:I213=Sheet2!C22)*(Sheet1!$J22:$J213=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E22" cm="1">
+        <f t="array" ref="E22">SUMPRODUCT((Sheet1!G22:G213=Sheet2!A22)*(Sheet1!I22:I213=Sheet2!C22)*(Sheet1!K22:K213=1))</f>
+        <v>5</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">SUMPRODUCT((Sheet1!G22:G213=Sheet2!A22)*(Sheet1!I22:I213=Sheet2!C22)*(Sheet1!L22:L213=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">SUMPRODUCT((Sheet1!G22:G213=Sheet2!A22)*(Sheet1!I22:I213=Sheet2!C22)*(Sheet1!M22:M213=1))</f>
+        <v>5</v>
+      </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22">SUMPRODUCT((Sheet1!G22:G213=Sheet2!A22)*(Sheet1!I22:I213=Sheet2!C22)*(Sheet1!N22:N213&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I22" cm="1">
+        <f t="array" ref="I22">SUMPRODUCT((Sheet1!G22:G213=Sheet2!A22)*(Sheet1!I22:I213=Sheet2!C22)*(Sheet1!O22:O213&gt;1))</f>
+        <v>5</v>
+      </c>
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">SUMPRODUCT((Sheet1!G22:G213=Sheet2!A22)*(Sheet1!I22:I213=Sheet2!C22)*(Sheet1!P22:P213&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">SUMPRODUCT((Sheet1!G22:G213=Sheet2!A22)*(Sheet1!I22:I213=Sheet2!C22)*(Sheet1!Q22:Q213&gt;1))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">SUMPRODUCT((Sheet1!G23:G214=Sheet2!A23)*(Sheet1!I23:I214=Sheet2!C23)*(Sheet1!$J23:$J214=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E23" cm="1">
+        <f t="array" ref="E23">SUMPRODUCT((Sheet1!G23:G214=Sheet2!A23)*(Sheet1!I23:I214=Sheet2!C23)*(Sheet1!K23:K214=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">SUMPRODUCT((Sheet1!G23:G214=Sheet2!A23)*(Sheet1!I23:I214=Sheet2!C23)*(Sheet1!L23:L214=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">SUMPRODUCT((Sheet1!G23:G214=Sheet2!A23)*(Sheet1!I23:I214=Sheet2!C23)*(Sheet1!M23:M214=1))</f>
+        <v>5</v>
+      </c>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23">SUMPRODUCT((Sheet1!G23:G214=Sheet2!A23)*(Sheet1!I23:I214=Sheet2!C23)*(Sheet1!N23:N214&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I23" cm="1">
+        <f t="array" ref="I23">SUMPRODUCT((Sheet1!G23:G214=Sheet2!A23)*(Sheet1!I23:I214=Sheet2!C23)*(Sheet1!O23:O214&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">SUMPRODUCT((Sheet1!G23:G214=Sheet2!A23)*(Sheet1!I23:I214=Sheet2!C23)*(Sheet1!P23:P214&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">SUMPRODUCT((Sheet1!G23:G214=Sheet2!A23)*(Sheet1!I23:I214=Sheet2!C23)*(Sheet1!Q23:Q214&gt;1))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">SUMPRODUCT((Sheet1!G24:G215=Sheet2!A24)*(Sheet1!I24:I215=Sheet2!C24)*(Sheet1!$J24:$J215=1))</f>
+        <v>1</v>
+      </c>
+      <c r="E24" cm="1">
+        <f t="array" ref="E24">SUMPRODUCT((Sheet1!G24:G215=Sheet2!A24)*(Sheet1!I24:I215=Sheet2!C24)*(Sheet1!K24:K215=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">SUMPRODUCT((Sheet1!G24:G215=Sheet2!A24)*(Sheet1!I24:I215=Sheet2!C24)*(Sheet1!L24:L215=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">SUMPRODUCT((Sheet1!G24:G215=Sheet2!A24)*(Sheet1!I24:I215=Sheet2!C24)*(Sheet1!M24:M215=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">SUMPRODUCT((Sheet1!G24:G215=Sheet2!A24)*(Sheet1!I24:I215=Sheet2!C24)*(Sheet1!N24:N215&gt;1))</f>
+        <v>1</v>
+      </c>
+      <c r="I24" cm="1">
+        <f t="array" ref="I24">SUMPRODUCT((Sheet1!G24:G215=Sheet2!A24)*(Sheet1!I24:I215=Sheet2!C24)*(Sheet1!O24:O215&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">SUMPRODUCT((Sheet1!G24:G215=Sheet2!A24)*(Sheet1!I24:I215=Sheet2!C24)*(Sheet1!P24:P215&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">SUMPRODUCT((Sheet1!G24:G215=Sheet2!A24)*(Sheet1!I24:I215=Sheet2!C24)*(Sheet1!Q24:Q215&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" cm="1">
+        <f t="array" ref="D25">SUMPRODUCT((Sheet1!G25:G216=Sheet2!A25)*(Sheet1!I25:I216=Sheet2!C25)*(Sheet1!$J25:$J216=1))</f>
+        <v>1</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" ref="E25">SUMPRODUCT((Sheet1!G25:G216=Sheet2!A25)*(Sheet1!I25:I216=Sheet2!C25)*(Sheet1!K25:K216=1))</f>
+        <v>2</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">SUMPRODUCT((Sheet1!G25:G216=Sheet2!A25)*(Sheet1!I25:I216=Sheet2!C25)*(Sheet1!L25:L216=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">SUMPRODUCT((Sheet1!G25:G216=Sheet2!A25)*(Sheet1!I25:I216=Sheet2!C25)*(Sheet1!M25:M216=1))</f>
+        <v>1</v>
+      </c>
+      <c r="H25" cm="1">
+        <f t="array" ref="H25">SUMPRODUCT((Sheet1!G25:G216=Sheet2!A25)*(Sheet1!I25:I216=Sheet2!C25)*(Sheet1!N25:N216&gt;1))</f>
+        <v>1</v>
+      </c>
+      <c r="I25" cm="1">
+        <f t="array" ref="I25">SUMPRODUCT((Sheet1!G25:G216=Sheet2!A25)*(Sheet1!I25:I216=Sheet2!C25)*(Sheet1!O25:O216&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">SUMPRODUCT((Sheet1!G25:G216=Sheet2!A25)*(Sheet1!I25:I216=Sheet2!C25)*(Sheet1!P25:P216&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">SUMPRODUCT((Sheet1!G25:G216=Sheet2!A25)*(Sheet1!I25:I216=Sheet2!C25)*(Sheet1!Q25:Q216&gt;1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" cm="1">
+        <f t="array" ref="D26">SUMPRODUCT((Sheet1!G26:G217=Sheet2!A26)*(Sheet1!I26:I217=Sheet2!C26)*(Sheet1!$J26:$J217=1))</f>
+        <v>2</v>
+      </c>
+      <c r="E26" cm="1">
+        <f t="array" ref="E26">SUMPRODUCT((Sheet1!G26:G217=Sheet2!A26)*(Sheet1!I26:I217=Sheet2!C26)*(Sheet1!K26:K217=1))</f>
+        <v>2</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">SUMPRODUCT((Sheet1!G26:G217=Sheet2!A26)*(Sheet1!I26:I217=Sheet2!C26)*(Sheet1!L26:L217=1))</f>
+        <v>2</v>
+      </c>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">SUMPRODUCT((Sheet1!G26:G217=Sheet2!A26)*(Sheet1!I26:I217=Sheet2!C26)*(Sheet1!M26:M217=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">SUMPRODUCT((Sheet1!G26:G217=Sheet2!A26)*(Sheet1!I26:I217=Sheet2!C26)*(Sheet1!N26:N217&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" ref="I26">SUMPRODUCT((Sheet1!G26:G217=Sheet2!A26)*(Sheet1!I26:I217=Sheet2!C26)*(Sheet1!O26:O217&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">SUMPRODUCT((Sheet1!G26:G217=Sheet2!A26)*(Sheet1!I26:I217=Sheet2!C26)*(Sheet1!P26:P217&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">SUMPRODUCT((Sheet1!G26:G217=Sheet2!A26)*(Sheet1!I26:I217=Sheet2!C26)*(Sheet1!Q26:Q217&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" cm="1">
+        <f t="array" ref="D27">SUMPRODUCT((Sheet1!G27:G218=Sheet2!A27)*(Sheet1!I27:I218=Sheet2!C27)*(Sheet1!$J27:$J218=1))</f>
+        <v>2</v>
+      </c>
+      <c r="E27" cm="1">
+        <f t="array" ref="E27">SUMPRODUCT((Sheet1!G27:G218=Sheet2!A27)*(Sheet1!I27:I218=Sheet2!C27)*(Sheet1!K27:K218=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">SUMPRODUCT((Sheet1!G27:G218=Sheet2!A27)*(Sheet1!I27:I218=Sheet2!C27)*(Sheet1!L27:L218=1))</f>
+        <v>2</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">SUMPRODUCT((Sheet1!G27:G218=Sheet2!A27)*(Sheet1!I27:I218=Sheet2!C27)*(Sheet1!M27:M218=1))</f>
+        <v>2</v>
+      </c>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">SUMPRODUCT((Sheet1!G27:G218=Sheet2!A27)*(Sheet1!I27:I218=Sheet2!C27)*(Sheet1!N27:N218&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27">SUMPRODUCT((Sheet1!G27:G218=Sheet2!A27)*(Sheet1!I27:I218=Sheet2!C27)*(Sheet1!O27:O218&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">SUMPRODUCT((Sheet1!G27:G218=Sheet2!A27)*(Sheet1!I27:I218=Sheet2!C27)*(Sheet1!P27:P218&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">SUMPRODUCT((Sheet1!G27:G218=Sheet2!A27)*(Sheet1!I27:I218=Sheet2!C27)*(Sheet1!Q27:Q218&gt;1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" cm="1">
+        <f t="array" ref="D28">SUMPRODUCT((Sheet1!G28:G219=Sheet2!A28)*(Sheet1!I28:I219=Sheet2!C28)*(Sheet1!$J28:$J219=1))</f>
+        <v>2</v>
+      </c>
+      <c r="E28" cm="1">
+        <f t="array" ref="E28">SUMPRODUCT((Sheet1!G28:G219=Sheet2!A28)*(Sheet1!I28:I219=Sheet2!C28)*(Sheet1!K28:K219=1))</f>
+        <v>4</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">SUMPRODUCT((Sheet1!G28:G219=Sheet2!A28)*(Sheet1!I28:I219=Sheet2!C28)*(Sheet1!L28:L219=1))</f>
+        <v>4</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">SUMPRODUCT((Sheet1!G28:G219=Sheet2!A28)*(Sheet1!I28:I219=Sheet2!C28)*(Sheet1!M28:M219=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H28" cm="1">
+        <f t="array" ref="H28">SUMPRODUCT((Sheet1!G28:G219=Sheet2!A28)*(Sheet1!I28:I219=Sheet2!C28)*(Sheet1!N28:N219&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="I28" cm="1">
+        <f t="array" ref="I28">SUMPRODUCT((Sheet1!G28:G219=Sheet2!A28)*(Sheet1!I28:I219=Sheet2!C28)*(Sheet1!O28:O219&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">SUMPRODUCT((Sheet1!G28:G219=Sheet2!A28)*(Sheet1!I28:I219=Sheet2!C28)*(Sheet1!P28:P219&gt;1))</f>
+        <v>4</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">SUMPRODUCT((Sheet1!G28:G219=Sheet2!A28)*(Sheet1!I28:I219=Sheet2!C28)*(Sheet1!Q28:Q219&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" cm="1">
+        <f t="array" ref="D29">SUMPRODUCT((Sheet1!G29:G220=Sheet2!A29)*(Sheet1!I29:I220=Sheet2!C29)*(Sheet1!$J29:$J220=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E29" cm="1">
+        <f t="array" ref="E29">SUMPRODUCT((Sheet1!G29:G220=Sheet2!A29)*(Sheet1!I29:I220=Sheet2!C29)*(Sheet1!K29:K220=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">SUMPRODUCT((Sheet1!G29:G220=Sheet2!A29)*(Sheet1!I29:I220=Sheet2!C29)*(Sheet1!L29:L220=1))</f>
+        <v>2</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">SUMPRODUCT((Sheet1!G29:G220=Sheet2!A29)*(Sheet1!I29:I220=Sheet2!C29)*(Sheet1!M29:M220=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">SUMPRODUCT((Sheet1!G29:G220=Sheet2!A29)*(Sheet1!I29:I220=Sheet2!C29)*(Sheet1!N29:N220&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29">SUMPRODUCT((Sheet1!G29:G220=Sheet2!A29)*(Sheet1!I29:I220=Sheet2!C29)*(Sheet1!O29:O220&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">SUMPRODUCT((Sheet1!G29:G220=Sheet2!A29)*(Sheet1!I29:I220=Sheet2!C29)*(Sheet1!P29:P220&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">SUMPRODUCT((Sheet1!G29:G220=Sheet2!A29)*(Sheet1!I29:I220=Sheet2!C29)*(Sheet1!Q29:Q220&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" cm="1">
+        <f t="array" ref="D30">SUMPRODUCT((Sheet1!G30:G221=Sheet2!A30)*(Sheet1!I30:I221=Sheet2!C30)*(Sheet1!$J30:$J221=1))</f>
+        <v>2</v>
+      </c>
+      <c r="E30" cm="1">
+        <f t="array" ref="E30">SUMPRODUCT((Sheet1!G30:G221=Sheet2!A30)*(Sheet1!I30:I221=Sheet2!C30)*(Sheet1!K30:K221=1))</f>
+        <v>2</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">SUMPRODUCT((Sheet1!G30:G221=Sheet2!A30)*(Sheet1!I30:I221=Sheet2!C30)*(Sheet1!L30:L221=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">SUMPRODUCT((Sheet1!G30:G221=Sheet2!A30)*(Sheet1!I30:I221=Sheet2!C30)*(Sheet1!M30:M221=1))</f>
+        <v>4</v>
+      </c>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">SUMPRODUCT((Sheet1!G30:G221=Sheet2!A30)*(Sheet1!I30:I221=Sheet2!C30)*(Sheet1!N30:N221&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="I30" cm="1">
+        <f t="array" ref="I30">SUMPRODUCT((Sheet1!G30:G221=Sheet2!A30)*(Sheet1!I30:I221=Sheet2!C30)*(Sheet1!O30:O221&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">SUMPRODUCT((Sheet1!G30:G221=Sheet2!A30)*(Sheet1!I30:I221=Sheet2!C30)*(Sheet1!P30:P221&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">SUMPRODUCT((Sheet1!G30:G221=Sheet2!A30)*(Sheet1!I30:I221=Sheet2!C30)*(Sheet1!Q30:Q221&gt;1))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" cm="1">
+        <f t="array" ref="D31">SUMPRODUCT((Sheet1!G31:G222=Sheet2!A31)*(Sheet1!I31:I222=Sheet2!C31)*(Sheet1!$J31:$J222=1))</f>
+        <v>2</v>
+      </c>
+      <c r="E31" cm="1">
+        <f t="array" ref="E31">SUMPRODUCT((Sheet1!G31:G222=Sheet2!A31)*(Sheet1!I31:I222=Sheet2!C31)*(Sheet1!K31:K222=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">SUMPRODUCT((Sheet1!G31:G222=Sheet2!A31)*(Sheet1!I31:I222=Sheet2!C31)*(Sheet1!L31:L222=1))</f>
+        <v>3</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">SUMPRODUCT((Sheet1!G31:G222=Sheet2!A31)*(Sheet1!I31:I222=Sheet2!C31)*(Sheet1!M31:M222=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31">SUMPRODUCT((Sheet1!G31:G222=Sheet2!A31)*(Sheet1!I31:I222=Sheet2!C31)*(Sheet1!N31:N222&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="I31" cm="1">
+        <f t="array" ref="I31">SUMPRODUCT((Sheet1!G31:G222=Sheet2!A31)*(Sheet1!I31:I222=Sheet2!C31)*(Sheet1!O31:O222&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">SUMPRODUCT((Sheet1!G31:G222=Sheet2!A31)*(Sheet1!I31:I222=Sheet2!C31)*(Sheet1!P31:P222&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">SUMPRODUCT((Sheet1!G31:G222=Sheet2!A31)*(Sheet1!I31:I222=Sheet2!C31)*(Sheet1!Q31:Q222&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" cm="1">
+        <f t="array" ref="D32">SUMPRODUCT((Sheet1!G32:G223=Sheet2!A32)*(Sheet1!I32:I223=Sheet2!C32)*(Sheet1!$J32:$J223=1))</f>
+        <v>3</v>
+      </c>
+      <c r="E32" cm="1">
+        <f t="array" ref="E32">SUMPRODUCT((Sheet1!G32:G223=Sheet2!A32)*(Sheet1!I32:I223=Sheet2!C32)*(Sheet1!K32:K223=1))</f>
+        <v>3</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">SUMPRODUCT((Sheet1!G32:G223=Sheet2!A32)*(Sheet1!I32:I223=Sheet2!C32)*(Sheet1!L32:L223=1))</f>
+        <v>2</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">SUMPRODUCT((Sheet1!G32:G223=Sheet2!A32)*(Sheet1!I32:I223=Sheet2!C32)*(Sheet1!M32:M223=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H32" cm="1">
+        <f t="array" ref="H32">SUMPRODUCT((Sheet1!G32:G223=Sheet2!A32)*(Sheet1!I32:I223=Sheet2!C32)*(Sheet1!N32:N223&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="I32" cm="1">
+        <f t="array" ref="I32">SUMPRODUCT((Sheet1!G32:G223=Sheet2!A32)*(Sheet1!I32:I223=Sheet2!C32)*(Sheet1!O32:O223&gt;1))</f>
+        <v>3</v>
+      </c>
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">SUMPRODUCT((Sheet1!G32:G223=Sheet2!A32)*(Sheet1!I32:I223=Sheet2!C32)*(Sheet1!P32:P223&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">SUMPRODUCT((Sheet1!G32:G223=Sheet2!A32)*(Sheet1!I32:I223=Sheet2!C32)*(Sheet1!Q32:Q223&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" cm="1">
+        <f t="array" ref="D33">SUMPRODUCT((Sheet1!G33:G224=Sheet2!A33)*(Sheet1!I33:I224=Sheet2!C33)*(Sheet1!$J33:$J224=1))</f>
+        <v>2</v>
+      </c>
+      <c r="E33" cm="1">
+        <f t="array" ref="E33">SUMPRODUCT((Sheet1!G33:G224=Sheet2!A33)*(Sheet1!I33:I224=Sheet2!C33)*(Sheet1!K33:K224=1))</f>
+        <v>1</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">SUMPRODUCT((Sheet1!G33:G224=Sheet2!A33)*(Sheet1!I33:I224=Sheet2!C33)*(Sheet1!L33:L224=1))</f>
+        <v>1</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">SUMPRODUCT((Sheet1!G33:G224=Sheet2!A33)*(Sheet1!I33:I224=Sheet2!C33)*(Sheet1!M33:M224=1))</f>
+        <v>3</v>
+      </c>
+      <c r="H33" cm="1">
+        <f t="array" ref="H33">SUMPRODUCT((Sheet1!G33:G224=Sheet2!A33)*(Sheet1!I33:I224=Sheet2!C33)*(Sheet1!N33:N224&gt;1))</f>
+        <v>2</v>
+      </c>
+      <c r="I33" cm="1">
+        <f t="array" ref="I33">SUMPRODUCT((Sheet1!G33:G224=Sheet2!A33)*(Sheet1!I33:I224=Sheet2!C33)*(Sheet1!O33:O224&gt;1))</f>
+        <v>1</v>
+      </c>
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">SUMPRODUCT((Sheet1!G33:G224=Sheet2!A33)*(Sheet1!I33:I224=Sheet2!C33)*(Sheet1!P33:P224&gt;1))</f>
+        <v>1</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">SUMPRODUCT((Sheet1!G33:G224=Sheet2!A33)*(Sheet1!I33:I224=Sheet2!C33)*(Sheet1!Q33:Q224&gt;1))</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>